--- a/src/main/java/RS/milp/RScost_milp.xlsx
+++ b/src/main/java/RS/milp/RScost_milp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EclipseInstall\sdp\src\main\java\RS\milp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD22E7B-4A25-4B72-A722-A6DABBAF6839}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27437FA-6A39-4830-B10E-2B5C42F81423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3927" yWindow="1420" windowWidth="16200" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3927" yWindow="1420" windowWidth="16200" windowHeight="10073" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -347,7 +348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -5365,4 +5366,5024 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC6BB2-96D8-4D5B-83E6-8BDE2A5A3714}">
+  <dimension ref="A1:A1001"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A46">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A47">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A49">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A50">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A51">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A52">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A57">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A58">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A59">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A61">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A62">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A63">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A64">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A103">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A104">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A105">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A106">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A107">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A108">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A109">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A110">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A111">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A112">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A113">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A114">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A115">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A116">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A117">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A118">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A119">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A120">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A121">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A122">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A123">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A124">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A125">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A126">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A127">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A128">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A129">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A130">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A131">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A132">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A133">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A134">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A135">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A136">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A137">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A138">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A139">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A140">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A141">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A142">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A143">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A144">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A145">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A146">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A147">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A148">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A149">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A150">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A151">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A152">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A153">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A154">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A155">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A156">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A157">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A158">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A159">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A160">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A161">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A162">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A163">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A164">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A165">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A166">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A167">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A168">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A169">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A170">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A171">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A172">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A173">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A174">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A175">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A176">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A177">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A178">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A179">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A180">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A181">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A182">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A183">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A184">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A185">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A186">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A187">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A188">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A189">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A190">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A191">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A192">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A193">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A194">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A195">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A196">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A197">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A198">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A199">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A200">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A201">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A202">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A203">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A204">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A205">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A206">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A207">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A208">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A209">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A210">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A211">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A212">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A213">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A214">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A215">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A216">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A217">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A218">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A219">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A220">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A221">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A222">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A223">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A224">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A225">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A226">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A227">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A228">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A229">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A230">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A231">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A232">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A233">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A234">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A235">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A236">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A237">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A238">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A239">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A240">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A241">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A242">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A243">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A244">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A245">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A246">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A247">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A248">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A249">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A250">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A251">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A252">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A253">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A254">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A255">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A256">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A257">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A258">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A259">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A260">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A261">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A262">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A263">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A264">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A265">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A266">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A267">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A268">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A269">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A270">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A271">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A272">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A273">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A274">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A275">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A276">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A277">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A278">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A279">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A280">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A281">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A282">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A283">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A284">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A285">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A286">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A287">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A288">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A289">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A290">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A291">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A292">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A293">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A294">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A295">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A296">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A297">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A298">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A299">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A300">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A301">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A302">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A303">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A304">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A305">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A306">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A307">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A308">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A309">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A310">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A311">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A312">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A313">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A314">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A315">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A316">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A317">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A318">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A319">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A320">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A321">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A322">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A323">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A324">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A325">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A326">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A327">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A328">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A329">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A330">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A331">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A332">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A333">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A334">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A335">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A336">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A337">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A338">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A339">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A340">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A341">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A342">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A343">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A344">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A345">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A346">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A347">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A348">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A349">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A350">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A351">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A352">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A353">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A354">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A355">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A356">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A357">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A358">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A359">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A360">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A361">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A362">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A363">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A364">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A365">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A366">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A367">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A368">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A369">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A370">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A371">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A372">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A373">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A374">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A375">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A376">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A377">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A378">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A379">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A380">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A381">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A382">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A383">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A384">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A385">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A386">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A387">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A388">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A389">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A390">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A391">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A392">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A393">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A394">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A395">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A396">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A397">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A398">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A399">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A400">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A401">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A402">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A403">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A404">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A405">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A406">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A407">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A408">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A409">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A410">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A411">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A412">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A413">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A414">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A415">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A416">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A417">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A418">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A419">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A420">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A421">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A422">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A423">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A424">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A425">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A426">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A427">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A428">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A429">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A430">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A431">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A432">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A433">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A434">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A435">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A436">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A437">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A438">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A439">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A440">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A441">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A442">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A443">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A444">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A445">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A446">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A447">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A448">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A449">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A450">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A451">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A452">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A453">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A454">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A455">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A456">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A457">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A458">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A459">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A460">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A461">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A462">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A463">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A464">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A465">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A466">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A467">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A468">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A469">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A470">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A471">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A472">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A473">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A474">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A475">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A476">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A477">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A478">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A479">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A480">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A481">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A482">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A483">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A484">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A485">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A486">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A487">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A488">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A489">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A490">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A491">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A492">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A493">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A494">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A495">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A496">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A497">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A498">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A499">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A500">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A501">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A502">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A503">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A504">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A505">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A506">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A507">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A508">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A509">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A510">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A511">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A512">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A513">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A514">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A515">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A516">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A517">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A518">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A519">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A520">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A521">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A522">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A523">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A524">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A525">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A526">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A527">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A528">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A529">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A530">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A531">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A532">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A533">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A534">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A535">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A536">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A537">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A538">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A539">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A540">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A541">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A542">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A543">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A544">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A545">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A546">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A547">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A548">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A549">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A550">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A551">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A552">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A553">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A554">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A555">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A556">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A557">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A558">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A559">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A560">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A561">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A562">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A563">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A564">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A565">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A566">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A567">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A568">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A569">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A570">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A571">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A572">
+        <v>342.11866198600001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A573">
+        <v>343.88231540200002</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A574">
+        <v>345.88231540200002</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A575">
+        <v>347.88231540200002</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A576">
+        <v>349.88231540200002</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A577">
+        <v>351.88231540200002</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A578">
+        <v>353.88231540200002</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A579">
+        <v>355.88231540200002</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A580">
+        <v>357.88231540200002</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A581">
+        <v>359.88231540200002</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A582">
+        <v>361.88231540200002</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A583">
+        <v>363.88231540200002</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A584">
+        <v>365.88231540200002</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A585">
+        <v>367.88231540200002</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A586">
+        <v>369.88231540200002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A587">
+        <v>371.88231540200002</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A588">
+        <v>373.88231540200002</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A589">
+        <v>375.88231540200002</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A590">
+        <v>377.88231540200002</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A591">
+        <v>379.88231540200002</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A592">
+        <v>381.88231540200002</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A593">
+        <v>383.88231540200002</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A594">
+        <v>385.88231540200002</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A595">
+        <v>387.88231540200002</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A596">
+        <v>389.88231540200002</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A597">
+        <v>391.88231540200002</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A598">
+        <v>393.88231540200002</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A599">
+        <v>395.88231540200002</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A600">
+        <v>397.88231540200002</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A601">
+        <v>399.88231540200002</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A602">
+        <v>401.88231540200002</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A603">
+        <v>403.88231540200002</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A604">
+        <v>405.88231540200002</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A605">
+        <v>407.88231540200002</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A606">
+        <v>409.88231540200002</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A607">
+        <v>411.88231540200002</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A608">
+        <v>413.88231540200002</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A609">
+        <v>415.88231540200002</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A610">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A611">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A612">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A613">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A614">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A615">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A616">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A617">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A618">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A619">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A620">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A621">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A622">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A623">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A624">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A625">
+        <v>416.77978673600001</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A626">
+        <v>417.202757287</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A627">
+        <v>418.13965228699999</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A628">
+        <v>419.07654728699998</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A629">
+        <v>420.01344228699998</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A630">
+        <v>420.95033728700002</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A631">
+        <v>421.88723228700002</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A632">
+        <v>422.82412728700001</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A633">
+        <v>423.761022287</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A634">
+        <v>424.697917287</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A635">
+        <v>425.63481228699999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A636">
+        <v>426.57170728699998</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A637">
+        <v>428.07910970400002</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A638">
+        <v>431.07910970400002</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A639">
+        <v>434.07910970400002</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A640">
+        <v>437.07910970400002</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A641">
+        <v>440.07910970400002</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A642">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A643">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A644">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A645">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A646">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A647">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A648">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A649">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A650">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A651">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A652">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A653">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A654">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A655">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A656">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A657">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A658">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A659">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A660">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A661">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A662">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A663">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A664">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A665">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A666">
+        <v>440.990440863</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A667">
+        <v>442.43884771400002</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A668">
+        <v>444.37574271400001</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A669">
+        <v>446.312637714</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A670">
+        <v>448.249532714</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A671">
+        <v>450.18642771399999</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A672">
+        <v>452.12332271399998</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A673">
+        <v>454.06021771399998</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A674">
+        <v>455.99711271400002</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A675">
+        <v>457.93400771400002</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A676">
+        <v>459.87090271400001</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A677">
+        <v>461.807797714</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A678">
+        <v>463.744692714</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A679">
+        <v>465.68158771399999</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A680">
+        <v>469.35994766800002</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A681">
+        <v>473.35994766800002</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A682">
+        <v>477.35994766800002</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A683">
+        <v>481.35994766800002</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A684">
+        <v>485.35994766800002</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A685">
+        <v>489.35994766800002</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A686">
+        <v>493.35994766800002</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A687">
+        <v>497.35994766800002</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A688">
+        <v>501.35994766800002</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A689">
+        <v>505.35994766800002</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A690">
+        <v>509.35994766800002</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A691">
+        <v>513.35994766800002</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A692">
+        <v>517.35994766800002</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A693">
+        <v>521.35994766800002</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A694">
+        <v>525.35994766800002</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A695">
+        <v>529.35994766800002</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A696">
+        <v>533.35994766800002</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A697">
+        <v>537.35994766800002</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A698">
+        <v>541.35994766800002</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A699">
+        <v>545.35994766800002</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A700">
+        <v>549.35994766800002</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A701">
+        <v>553.35994766800002</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A702">
+        <v>557.35994766800002</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A703">
+        <v>561.35994766800002</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A704">
+        <v>565.35994766800002</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A705">
+        <v>569.35994766800002</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A706">
+        <v>573.35994766800002</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A707">
+        <v>577.35994766800002</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A708">
+        <v>581.35994766800002</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A709">
+        <v>585.35994766800002</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A710">
+        <v>589.35994766800002</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A711">
+        <v>593.35994766800002</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A712">
+        <v>597.35994766800002</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A713">
+        <v>601.35994766800002</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A714">
+        <v>605.35994766800002</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A715">
+        <v>609.35994766800002</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A716">
+        <v>613.35994766800002</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A717">
+        <v>617.35994766800002</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A718">
+        <v>621.35994766800002</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A719">
+        <v>625.35994766800002</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A720">
+        <v>629.35994766800002</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A721">
+        <v>633.35994766800002</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A722">
+        <v>637.35994766800002</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A723">
+        <v>641.35994766800002</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A724">
+        <v>645.35994766800002</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A725">
+        <v>649.35994766800002</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A726">
+        <v>653.35994766800002</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A727">
+        <v>657.35994766800002</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A728">
+        <v>661.35994766800002</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A729">
+        <v>665.35994766800002</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A730">
+        <v>669.35994766800002</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A731">
+        <v>673.35994766800002</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A732">
+        <v>677.35994766800002</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A733">
+        <v>681.35994766800002</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A734">
+        <v>685.35994766800002</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A735">
+        <v>689.35994766800002</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A736">
+        <v>693.35994766800002</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A737">
+        <v>697.35994766800002</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A738">
+        <v>701.35994766800002</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A739">
+        <v>705.35994766800002</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A740">
+        <v>709.35994766800002</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A741">
+        <v>713.35994766800002</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A742">
+        <v>717.35994766800002</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A743">
+        <v>721.35994766800002</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A744">
+        <v>725.35994766800002</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A745">
+        <v>729.35994766800002</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A746">
+        <v>733.35994766800002</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A747">
+        <v>737.35994766800002</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A748">
+        <v>741.35994766800002</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A749">
+        <v>745.35994766800002</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A750">
+        <v>749.35994766800002</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A751">
+        <v>753.35994766800002</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A752">
+        <v>757.35994766800002</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A753">
+        <v>761.35994766800002</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A754">
+        <v>765.35994766800002</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A755">
+        <v>769.35994766800002</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A756">
+        <v>773.35994766800002</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A757">
+        <v>777.35994766800002</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A758">
+        <v>781.35994766800002</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A759">
+        <v>785.35994766800002</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A760">
+        <v>789.35994766800002</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A761">
+        <v>793.35994766800002</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A762">
+        <v>797.35994766800002</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A763">
+        <v>801.35994766800002</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A764">
+        <v>805.35994766800002</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A765">
+        <v>809.35994766800002</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A766">
+        <v>813.35994766800002</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A767">
+        <v>817.35994766800002</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A768">
+        <v>821.35994766800002</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A769">
+        <v>825.35994766800002</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A770">
+        <v>829.35994766800002</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A771">
+        <v>833.35994766800002</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A772">
+        <v>837.35994766800002</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A773">
+        <v>841.35994766800002</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A774">
+        <v>845.35994766800002</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A775">
+        <v>849.35994766800002</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A776">
+        <v>853.35994766800002</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A777">
+        <v>857.35994766800002</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A778">
+        <v>861.35994766800002</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A779">
+        <v>865.35994766800002</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A780">
+        <v>869.35994766800002</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A781">
+        <v>873.35994766800002</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A782">
+        <v>877.35994766800002</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A783">
+        <v>881.35994766800002</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A784">
+        <v>885.35994766800002</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A785">
+        <v>889.35994766800002</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A786">
+        <v>893.35994766800002</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A787">
+        <v>897.35994766800002</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A788">
+        <v>901.35994766800002</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A789">
+        <v>905.35994766800002</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A790">
+        <v>909.35994766800002</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A791">
+        <v>913.35994766800002</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A792">
+        <v>917.35994766800002</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A793">
+        <v>921.35994766800002</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A794">
+        <v>925.35994766800002</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A795">
+        <v>929.35994766800002</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A796">
+        <v>933.35994766800002</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A797">
+        <v>937.35994766800002</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A798">
+        <v>941.35994766800002</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A799">
+        <v>945.35994766800002</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A800">
+        <v>949.35994766800002</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A801">
+        <v>953.35994766800002</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A802">
+        <v>957.35994766800002</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A803">
+        <v>961.35994766800002</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A804">
+        <v>965.35994766800002</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A805">
+        <v>969.35994766800002</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A806">
+        <v>973.35994766800002</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A807">
+        <v>977.35994766800002</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A808">
+        <v>981.35994766800002</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A809">
+        <v>985.35994766800002</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A810">
+        <v>989.35994766800002</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A811">
+        <v>993.35994766800002</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A812">
+        <v>997.35994766800002</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A813">
+        <v>1001.359947668</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A814">
+        <v>1005.359947668</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A815">
+        <v>1009.359947668</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A816">
+        <v>1013.359947668</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A817">
+        <v>1017.359947668</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A818">
+        <v>1021.359947668</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A819">
+        <v>1025.3599476679999</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A820">
+        <v>1029.3599476679999</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A821">
+        <v>1033.3599476679999</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A822">
+        <v>1037.3599476679999</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A823">
+        <v>1041.3599476679999</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A824">
+        <v>1045.3599476679999</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A825">
+        <v>1049.3599476679999</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A826">
+        <v>1053.3599476679999</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A827">
+        <v>1057.3599476679999</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A828">
+        <v>1061.3599476679999</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A829">
+        <v>1065.3599476679999</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A830">
+        <v>1069.3599476679999</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A831">
+        <v>1073.3599476679999</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A832">
+        <v>1077.3599476679999</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A833">
+        <v>1081.3599476679999</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A834">
+        <v>1085.3599476679999</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A835">
+        <v>1089.3599476679999</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A836">
+        <v>1093.3599476679999</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A837">
+        <v>1097.3599476679999</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A838">
+        <v>1101.3599476679999</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A839">
+        <v>1105.3599476679999</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A840">
+        <v>1109.3599476679999</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A841">
+        <v>1113.3599476679999</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A842">
+        <v>1117.3599476679999</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A843">
+        <v>1121.3599476679999</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A844">
+        <v>1125.3599476679999</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A845">
+        <v>1129.3599476679999</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A846">
+        <v>1133.3599476679999</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A847">
+        <v>1137.3599476679999</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A848">
+        <v>1141.3599476679999</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A849">
+        <v>1145.3599476679999</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A850">
+        <v>1149.3599476679999</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A851">
+        <v>1153.3599476679999</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A852">
+        <v>1157.3599476679999</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A853">
+        <v>1161.3599476679999</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A854">
+        <v>1165.3599476679999</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A855">
+        <v>1169.3599476679999</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A856">
+        <v>1173.3599476679999</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A857">
+        <v>1177.3599476679999</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A858">
+        <v>1181.3599476679999</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A859">
+        <v>1185.3599476679999</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A860">
+        <v>1189.3599476679999</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A861">
+        <v>1193.3599476679999</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A862">
+        <v>1197.3599476679999</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A863">
+        <v>1201.3599476679999</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A864">
+        <v>1205.3599476679999</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A865">
+        <v>1209.3599476679999</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A866">
+        <v>1213.3599476679999</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A867">
+        <v>1217.3599476679999</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A868">
+        <v>1221.3599476679999</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A869">
+        <v>1225.3599476679999</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A870">
+        <v>1229.3599476679999</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A871">
+        <v>1233.3599476679999</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A872">
+        <v>1237.3599476679999</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A873">
+        <v>1241.3599476679999</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A874">
+        <v>1245.3599476679999</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A875">
+        <v>1249.3599476679999</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A876">
+        <v>1253.3599476679999</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A877">
+        <v>1257.3599476679999</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A878">
+        <v>1261.3599476679999</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A879">
+        <v>1265.3599476679999</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A880">
+        <v>1269.3599476679999</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A881">
+        <v>1273.3599476679999</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A882">
+        <v>1277.3599476679999</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A883">
+        <v>1281.3599476679999</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A884">
+        <v>1285.3599476679999</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A885">
+        <v>1289.3599476679999</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A886">
+        <v>1293.3599476679999</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A887">
+        <v>1297.3599476679999</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A888">
+        <v>1301.3599476679999</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A889">
+        <v>1305.3599476679999</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A890">
+        <v>1309.3599476679999</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A891">
+        <v>1313.3599476679999</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A892">
+        <v>1317.3599476679999</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A893">
+        <v>1321.3599476679999</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A894">
+        <v>1325.3599476679999</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A895">
+        <v>1329.3599476679999</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A896">
+        <v>1333.3599476679999</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A897">
+        <v>1337.3599476679999</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A898">
+        <v>1341.3599476679999</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A899">
+        <v>1345.3599476679999</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A900">
+        <v>1349.3599476679999</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A901">
+        <v>1353.3599476679999</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A902">
+        <v>1357.3599476679999</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A903">
+        <v>1361.3599476679999</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A904">
+        <v>1365.3599476679999</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A905">
+        <v>1369.3599476679999</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A906">
+        <v>1373.3599476679999</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A907">
+        <v>1377.3599476679999</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A908">
+        <v>1381.3599476679999</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A909">
+        <v>1385.3599476679999</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A910">
+        <v>1389.3599476679999</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A911">
+        <v>1393.3599476679999</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A912">
+        <v>1397.3599476679999</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A913">
+        <v>1401.3599476679999</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A914">
+        <v>1405.3599476679999</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A915">
+        <v>1409.3599476679999</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A916">
+        <v>1413.3599476679999</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A917">
+        <v>1417.3599476679999</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A918">
+        <v>1421.3599476679999</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A919">
+        <v>1425.3599476679999</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A920">
+        <v>1429.3599476679999</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A921">
+        <v>1433.3599476679999</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A922">
+        <v>1437.3599476679999</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A923">
+        <v>1441.3599476679999</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A924">
+        <v>1445.3599476679999</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A925">
+        <v>1449.3599476679999</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A926">
+        <v>1453.3599476679999</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A927">
+        <v>1457.3599476679999</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A928">
+        <v>1461.3599476679999</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A929">
+        <v>1465.3599476679999</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A930">
+        <v>1469.3599476679999</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A931">
+        <v>1473.3599476679999</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A932">
+        <v>1477.3599476679999</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A933">
+        <v>1481.3599476679999</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A934">
+        <v>1485.3599476679999</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A935">
+        <v>1489.3599476679999</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A936">
+        <v>1493.3599476679999</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A937">
+        <v>1497.3599476679999</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A938">
+        <v>1501.3599476679999</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A939">
+        <v>1505.3599476679999</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A940">
+        <v>1509.3599476679999</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A941">
+        <v>1513.3599476679999</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A942">
+        <v>1517.3599476679999</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A943">
+        <v>1521.3599476679999</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A944">
+        <v>1525.3599476679999</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A945">
+        <v>1529.3599476679999</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A946">
+        <v>1533.3599476679999</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A947">
+        <v>1537.3599476679999</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A948">
+        <v>1541.3599476679999</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A949">
+        <v>1545.3599476679999</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A950">
+        <v>1549.3599476679999</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A951">
+        <v>1553.3599476679999</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A952">
+        <v>1557.3599476679999</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A953">
+        <v>1561.3599476679999</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A954">
+        <v>1565.3599476679999</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A955">
+        <v>1569.3599476679999</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A956">
+        <v>1573.3599476679999</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A957">
+        <v>1577.3599476679999</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A958">
+        <v>1581.3599476679999</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A959">
+        <v>1585.3599476679999</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A960">
+        <v>1589.3599476679999</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A961">
+        <v>1593.3599476679999</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A962">
+        <v>1597.3599476679999</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A963">
+        <v>1601.3599476679999</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A964">
+        <v>1605.3599476679999</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A965">
+        <v>1609.3599476679999</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A966">
+        <v>1613.3599476679999</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A967">
+        <v>1617.3599476679999</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A968">
+        <v>1621.3599476679999</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A969">
+        <v>1625.3599476679999</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A970">
+        <v>1629.3599476679999</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A971">
+        <v>1633.3599476679999</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A972">
+        <v>1637.3599476679999</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A973">
+        <v>1641.3599476679999</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A974">
+        <v>1645.3599476679999</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A975">
+        <v>1649.3599476679999</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A976">
+        <v>1653.3599476679999</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A977">
+        <v>1657.3599476679999</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A978">
+        <v>1661.3599476679999</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A979">
+        <v>1665.3599476679999</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A980">
+        <v>1669.3599476679999</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A981">
+        <v>1673.3599476679999</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A982">
+        <v>1677.3599476679999</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A983">
+        <v>1681.3599476679999</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A984">
+        <v>1685.3599476679999</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A985">
+        <v>1689.3599476679999</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A986">
+        <v>1693.3599476679999</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A987">
+        <v>1697.3599476679999</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A988">
+        <v>1701.3599476679999</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A989">
+        <v>1705.3599476679999</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A990">
+        <v>1709.3599476679999</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A991">
+        <v>1713.3599476679999</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A992">
+        <v>1717.3599476679999</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A993">
+        <v>1721.3599476679999</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A994">
+        <v>1725.3599476679999</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A995">
+        <v>1729.3599476679999</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A996">
+        <v>1733.3599476679999</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A997">
+        <v>1737.3599476679999</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A998">
+        <v>1741.3599476679999</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A999">
+        <v>1745.3599476679999</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1000">
+        <v>1749.3599476679999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1001">
+        <v>1753.3599476679999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/RS/milp/RScost_milp.xlsx
+++ b/src/main/java/RS/milp/RScost_milp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EclipseInstall\sdp\src\main\java\RS\milp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27437FA-6A39-4830-B10E-2B5C42F81423}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F397F00-950E-408D-B5A4-ECDE3F853390}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3927" yWindow="1420" windowWidth="16200" windowHeight="10073" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,5007 +355,5007 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
-        <v>5488.4301402749998</v>
+        <v>5524.0180777730002</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
-        <v>5478.4301402749998</v>
+        <v>5514.0180777730002</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
-        <v>5468.4301402749998</v>
+        <v>5504.0180777730002</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
-        <v>5458.4301402749998</v>
+        <v>5494.0180777730002</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
-        <v>5448.4301402749998</v>
+        <v>5484.0180777730002</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
-        <v>5438.4301402749998</v>
+        <v>5474.0180777730002</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
-        <v>5428.4301402749998</v>
+        <v>5464.0180777730002</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
-        <v>5418.4301402749998</v>
+        <v>5454.0180777730002</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
-        <v>5408.4301402749998</v>
+        <v>5444.0180777730002</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
-        <v>5398.4301402749998</v>
+        <v>5434.0180777730002</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
-        <v>5388.4301402749998</v>
+        <v>5424.0180777730002</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
-        <v>5378.4301402749998</v>
+        <v>5414.0180777730002</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
-        <v>5368.4301402749998</v>
+        <v>5404.0180777730002</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
-        <v>5358.4301402749998</v>
+        <v>5394.0180777730002</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
-        <v>5348.4301402749998</v>
+        <v>5384.0180777730002</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
-        <v>5338.4301402749998</v>
+        <v>5374.0180777730002</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
-        <v>5328.4301402749998</v>
+        <v>5364.0180777730002</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
-        <v>5318.4301402749998</v>
+        <v>5354.0180777730002</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
-        <v>5308.4301402749998</v>
+        <v>5344.0180777730002</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
-        <v>5298.4301402749998</v>
+        <v>5334.0180777730002</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
-        <v>5288.4301402749998</v>
+        <v>5324.0180777730002</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
-        <v>5278.4301402749998</v>
+        <v>5314.0180777730002</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
-        <v>5268.4301402749998</v>
+        <v>5304.0180777730002</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
-        <v>5258.4301402749998</v>
+        <v>5294.0180777730002</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
-        <v>5248.4301402749998</v>
+        <v>5284.0180777730002</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
-        <v>5238.4301402749998</v>
+        <v>5274.0180777730002</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
-        <v>5228.4301402749998</v>
+        <v>5264.0180777730002</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
-        <v>5218.4301402749998</v>
+        <v>5254.0180777730002</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
-        <v>5208.4301402749998</v>
+        <v>5244.0180777730002</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
-        <v>5198.4301402749998</v>
+        <v>5234.0180777730002</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
-        <v>5188.4301402749998</v>
+        <v>5224.0180777730002</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
-        <v>5178.4301402749998</v>
+        <v>5214.0180777730002</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
-        <v>5168.4301402749998</v>
+        <v>5204.0180777730002</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
-        <v>5158.4301402749998</v>
+        <v>5194.0180777730002</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
-        <v>5148.4301402749998</v>
+        <v>5184.0180777730002</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
-        <v>5138.4301402749998</v>
+        <v>5174.0180777730002</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
-        <v>5128.4301402749998</v>
+        <v>5164.0180777730002</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
-        <v>5118.4301402749998</v>
+        <v>5154.0180777730002</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
-        <v>5108.4301402749998</v>
+        <v>5144.0180777730002</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
-        <v>5098.4301402749998</v>
+        <v>5134.0180777730002</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
-        <v>5088.763053828</v>
+        <v>5124.0180777730002</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
-        <v>5078.4301402749998</v>
+        <v>5114.0180777730002</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
-        <v>5068.4301402749998</v>
+        <v>5104.0180777730002</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
-        <v>5058.4301402749998</v>
+        <v>5094.0180777730002</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
-        <v>5048.4301402749998</v>
+        <v>5084.0180777730002</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
-        <v>5038.4301402749998</v>
+        <v>5074.0180777730002</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
-        <v>5028.4301402749998</v>
+        <v>5064.0180777730002</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
-        <v>5018.4301402749998</v>
+        <v>5054.0180777730002</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
-        <v>5008.4301402749998</v>
+        <v>5044.0180777730002</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
-        <v>4998.4301402749998</v>
+        <v>5034.0180777730002</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
-        <v>4988.4301402749998</v>
+        <v>5024.0180777730002</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
-        <v>4978.4301402749998</v>
+        <v>5014.0180777730002</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
-        <v>4968.4301402749998</v>
+        <v>5004.0180777730002</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
-        <v>4958.4301402749998</v>
+        <v>4994.0180777730002</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
-        <v>4948.4301402749998</v>
+        <v>4984.0180777730002</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
-        <v>4938.4301402749998</v>
+        <v>4974.0180777730002</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
-        <v>4928.4301402749998</v>
+        <v>4964.0180777730002</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
-        <v>4918.4301402749998</v>
+        <v>4954.0180777730002</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
-        <v>4908.763053828</v>
+        <v>4944.0180777730002</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
-        <v>4898.4301402749998</v>
+        <v>4934.0180777730002</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
-        <v>4888.4301402749998</v>
+        <v>4924.0180777730002</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
-        <v>4878.4301402749998</v>
+        <v>4914.0180777730002</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
-        <v>4868.4301402749998</v>
+        <v>4904.0180777730002</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
-        <v>4858.4301402749998</v>
+        <v>4894.0180777730002</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
-        <v>4848.4301402749998</v>
+        <v>4884.0180777730002</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
-        <v>4838.4301402749998</v>
+        <v>4874.0180777730002</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
-        <v>4828.4301402749998</v>
+        <v>4864.0180777730002</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
-        <v>4818.4301402749998</v>
+        <v>4854.0180777730002</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
-        <v>4808.763053828</v>
+        <v>4844.0180777730002</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
-        <v>4798.4301402749998</v>
+        <v>4834.0180777730002</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
-        <v>4788.4301402749998</v>
+        <v>4824.0180777730002</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
-        <v>4778.4301402749998</v>
+        <v>4814.0180777730002</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
-        <v>4768.4301402749998</v>
+        <v>4804.0180777730002</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
-        <v>4758.4301402749998</v>
+        <v>4794.0180777730002</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
-        <v>4748.4301402749998</v>
+        <v>4784.0180777730002</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
-        <v>4738.763053828</v>
+        <v>4774.0180777730002</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
-        <v>4728.4301402749998</v>
+        <v>4764.0180777730002</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
-        <v>4718.4301402749998</v>
+        <v>4754.0180777730002</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
-        <v>4708.4301402749998</v>
+        <v>4744.0180777730002</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
-        <v>4698.4301402749998</v>
+        <v>4734.0180777730002</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
-        <v>4688.4301402749998</v>
+        <v>4724.0180777730002</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
-        <v>4678.4301402749998</v>
+        <v>4714.0180777730002</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
-        <v>4668.4301402749998</v>
+        <v>4704.0180777730002</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
-        <v>4658.4301402749998</v>
+        <v>4694.0180777730002</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
-        <v>4648.4301402749998</v>
+        <v>4684.0180777730002</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
-        <v>4638.4301402749998</v>
+        <v>4674.0180777730002</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
-        <v>4628.4301402749998</v>
+        <v>4664.0180777730002</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
-        <v>4618.4301402749998</v>
+        <v>4654.0180777730002</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
-        <v>4608.4301402749998</v>
+        <v>4644.0180777730002</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
-        <v>4598.4301402749998</v>
+        <v>4634.0180777730002</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
-        <v>4588.4301402749998</v>
+        <v>4624.0180777730002</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
-        <v>4578.4301402749998</v>
+        <v>4614.0180777730002</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
-        <v>4568.4301402749998</v>
+        <v>4604.0180777730002</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
-        <v>4558.4301402749998</v>
+        <v>4594.0180777730002</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
-        <v>4548.4301402749998</v>
+        <v>4584.0180777730002</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
-        <v>4538.4301402749998</v>
+        <v>4574.0180777730002</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
-        <v>4528.4301402749998</v>
+        <v>4564.0180777730002</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
-        <v>4518.4301402749998</v>
+        <v>4554.0180777730002</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
-        <v>4508.4301402749998</v>
+        <v>4544.0180777730002</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
-        <v>4498.4301402749998</v>
+        <v>4534.0180777730002</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
-        <v>4488.4301402749998</v>
+        <v>4524.0180777730002</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
-        <v>4478.4301402749998</v>
+        <v>4514.0180777730002</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
-        <v>4468.4301402749998</v>
+        <v>4504.0180777730002</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
-        <v>4458.4301402749998</v>
+        <v>4494.0180777730002</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
-        <v>4448.4301402749998</v>
+        <v>4484.0180777730002</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
-        <v>4438.4301402749998</v>
+        <v>4474.0180777730002</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
-        <v>4428.4301402749998</v>
+        <v>4464.0180777730002</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
-        <v>4418.4301402749998</v>
+        <v>4454.0180777730002</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
-        <v>4408.4301402749998</v>
+        <v>4444.0180777730002</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
-        <v>4398.4301402749998</v>
+        <v>4434.0180777730002</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
-        <v>4388.4301402749998</v>
+        <v>4424.0180777730002</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
-        <v>4378.4301402749998</v>
+        <v>4414.0180777730002</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
-        <v>4368.4301402749998</v>
+        <v>4404.0180777730002</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
-        <v>4358.4301402749998</v>
+        <v>4394.0180777730002</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
-        <v>4348.4301402749998</v>
+        <v>4384.0180777730002</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
-        <v>4338.4301402749998</v>
+        <v>4374.0180777730002</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
-        <v>4328.763053828</v>
+        <v>4364.0180777730002</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
-        <v>4318.4301402749998</v>
+        <v>4354.0180777730002</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
-        <v>4308.4301402749998</v>
+        <v>4344.0180777730002</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
-        <v>4298.4301402749998</v>
+        <v>4334.0180777730002</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
-        <v>4288.4301402749998</v>
+        <v>4324.0180777730002</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
-        <v>4278.4301402749998</v>
+        <v>4314.0180777730002</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
-        <v>4268.4301402749998</v>
+        <v>4304.0180777730002</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
-        <v>4258.4301402749998</v>
+        <v>4294.0180777730002</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
-        <v>4248.4301402749998</v>
+        <v>4284.0180777730002</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
-        <v>4238.4301402749998</v>
+        <v>4274.0180777730002</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
-        <v>4228.4301402749998</v>
+        <v>4264.0180777730002</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
-        <v>4218.4301402749998</v>
+        <v>4254.0180777730002</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
-        <v>4208.763053828</v>
+        <v>4244.0180777730002</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
-        <v>4198.4301402749998</v>
+        <v>4234.0180777730002</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
-        <v>4188.4301402749998</v>
+        <v>4224.0180777730002</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
-        <v>4178.4301402749998</v>
+        <v>4214.0180777730002</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
-        <v>4168.4301402749998</v>
+        <v>4204.0180777730002</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
-        <v>4158.4301402749998</v>
+        <v>4194.0180777730002</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
-        <v>4148.763053828</v>
+        <v>4184.0180777730002</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
-        <v>4138.4301402749998</v>
+        <v>4174.0180777730002</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
-        <v>4128.4301402749998</v>
+        <v>4164.0180777730002</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
-        <v>4118.4301402749998</v>
+        <v>4154.0180777730002</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
-        <v>4108.4301402749998</v>
+        <v>4144.0180777730002</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
-        <v>4098.4301402749998</v>
+        <v>4134.0180777730002</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
-        <v>4088.4301402750002</v>
+        <v>4124.0180777730002</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
-        <v>4078.4301402750002</v>
+        <v>4114.0180777730002</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
-        <v>4068.4301402750002</v>
+        <v>4104.0180777730002</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
-        <v>4058.4301402750002</v>
+        <v>4094.0180777730002</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
-        <v>4048.4301402750002</v>
+        <v>4084.0180777730002</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
-        <v>4038.4301402750002</v>
+        <v>4074.0180777730002</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
-        <v>4028.4301402750002</v>
+        <v>4064.0180777730002</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
-        <v>4018.4301402750002</v>
+        <v>4054.0180777730002</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
-        <v>4008.4301402750002</v>
+        <v>4044.0180777730002</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
-        <v>3998.4301402750002</v>
+        <v>4034.0180777730002</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
-        <v>3988.4301402750002</v>
+        <v>4024.0180777730002</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
-        <v>3978.4301402750002</v>
+        <v>4014.0180777730002</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
-        <v>3968.4301402750002</v>
+        <v>4004.0180777730002</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
-        <v>3958.4301402750002</v>
+        <v>3994.0180777730002</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
-        <v>3948.4301402750002</v>
+        <v>3984.0180777730002</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
-        <v>3938.4301402750002</v>
+        <v>3974.0180777730002</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
-        <v>3928.4301402750002</v>
+        <v>3964.0180777730002</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
-        <v>3918.4301402750002</v>
+        <v>3954.0180777730002</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
-        <v>3908.4301402750002</v>
+        <v>3944.0180777730002</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
-        <v>3898.4301402750002</v>
+        <v>3934.0180777730002</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
-        <v>3888.4301402750002</v>
+        <v>3924.0180777730002</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
-        <v>3878.4301402750002</v>
+        <v>3914.0180777730002</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
-        <v>3868.4301402750002</v>
+        <v>3904.0180777730002</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
-        <v>3858.4301402750002</v>
+        <v>3894.0180777730002</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
-        <v>3848.4301402750002</v>
+        <v>3884.0180777730002</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
-        <v>3838.4301402750002</v>
+        <v>3874.0180777730002</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
-        <v>3828.4301402750002</v>
+        <v>3864.0180777730002</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
-        <v>3818.4301402750002</v>
+        <v>3854.0180777730002</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
-        <v>3808.763053828</v>
+        <v>3844.0180777730002</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
-        <v>3798.4301402750002</v>
+        <v>3834.0180777730002</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
-        <v>3788.4301402750002</v>
+        <v>3824.0180777730002</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
-        <v>3778.4301402750002</v>
+        <v>3814.0180777730002</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
-        <v>3768.4301402750002</v>
+        <v>3804.0180777730002</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
-        <v>3758.4301402750002</v>
+        <v>3794.0180777730002</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
-        <v>3748.4301402750002</v>
+        <v>3784.0180777730002</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
-        <v>3738.4301402750002</v>
+        <v>3774.0180777730002</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
-        <v>3728.4301402750002</v>
+        <v>3764.0180777730002</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
-        <v>3718.4301402750002</v>
+        <v>3754.0180777730002</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
-        <v>3708.4301402750002</v>
+        <v>3744.0180777730002</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
-        <v>3698.4301402750002</v>
+        <v>3734.0180777730002</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
-        <v>3688.4301402750002</v>
+        <v>3724.0180777730002</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
-        <v>3678.4301402750002</v>
+        <v>3714.0180777730002</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
-        <v>3668.4301402750002</v>
+        <v>3704.0180777730002</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
-        <v>3658.4301402750002</v>
+        <v>3694.0180777730002</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
-        <v>3648.4301402750002</v>
+        <v>3684.0180777730002</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
-        <v>3638.763053828</v>
+        <v>3674.0180777730002</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
-        <v>3628.4301402750002</v>
+        <v>3664.0180777730002</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
-        <v>3618.4301402750002</v>
+        <v>3654.0180777730002</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
-        <v>3608.4301402750002</v>
+        <v>3644.0180777730002</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
-        <v>3598.4301402750002</v>
+        <v>3634.0180777730002</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
-        <v>3588.4301402750002</v>
+        <v>3624.0180777730002</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
-        <v>3578.4301402750002</v>
+        <v>3614.0180777730002</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
-        <v>3568.4301402750002</v>
+        <v>3604.0180777730002</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
-        <v>3558.4301402750002</v>
+        <v>3594.0180777730002</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
-        <v>3548.4301402750002</v>
+        <v>3584.0180777730002</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
-        <v>3538.4301402750002</v>
+        <v>3574.0180777730002</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
-        <v>3528.4301402750002</v>
+        <v>3564.0180777730002</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
-        <v>3518.4301402750002</v>
+        <v>3554.0180777730002</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
-        <v>3508.4301402750002</v>
+        <v>3544.0180777730002</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
-        <v>3498.4301402750002</v>
+        <v>3534.0180777730002</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
-        <v>3488.4301402750002</v>
+        <v>3524.0180777730002</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
-        <v>3478.4301402750002</v>
+        <v>3514.0180777730002</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
-        <v>3468.4301402750002</v>
+        <v>3504.0180777730002</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
-        <v>3458.4301402750002</v>
+        <v>3494.0180777730002</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
-        <v>3448.4301402750002</v>
+        <v>3484.0180777730002</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
-        <v>3438.4301402750002</v>
+        <v>3474.0180777730002</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
-        <v>3428.4301402750002</v>
+        <v>3464.0180777730002</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
-        <v>3418.4301402750002</v>
+        <v>3454.0180777730002</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
-        <v>3408.4301402750002</v>
+        <v>3444.0180777730002</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
-        <v>3398.4301402750002</v>
+        <v>3434.0180777730002</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
-        <v>3388.4301402750002</v>
+        <v>3424.0180777730002</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
-        <v>3378.4301402750002</v>
+        <v>3414.0180777730002</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
-        <v>3368.4301402750002</v>
+        <v>3404.0180777730002</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
-        <v>3358.4301402750002</v>
+        <v>3394.0180777730002</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
-        <v>3348.4301402750002</v>
+        <v>3384.0180777730002</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
-        <v>3338.4301402750002</v>
+        <v>3374.0180777730002</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
-        <v>3328.4301402750002</v>
+        <v>3364.0180777730002</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
-        <v>3318.4301402750002</v>
+        <v>3354.0180777730002</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
-        <v>3308.4301402750002</v>
+        <v>3344.0180777730002</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
-        <v>3298.4301402750002</v>
+        <v>3334.0180777730002</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
-        <v>3288.4301402750002</v>
+        <v>3324.0180777730002</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
-        <v>3278.4301402750002</v>
+        <v>3314.0180777730002</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
-        <v>3268.4301402750002</v>
+        <v>3304.0180777730002</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
-        <v>3258.4301402750002</v>
+        <v>3294.0180777730002</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
-        <v>3248.4301402750002</v>
+        <v>3284.0180777730002</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
-        <v>3238.4301402750002</v>
+        <v>3274.0180777730002</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
-        <v>3228.4301402750002</v>
+        <v>3264.0180777730002</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
-        <v>3218.4301402750002</v>
+        <v>3254.0180777730002</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
-        <v>3208.4301402750002</v>
+        <v>3244.0180777730002</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
-        <v>3198.4301402750002</v>
+        <v>3234.0180777730002</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
-        <v>3188.4301402750002</v>
+        <v>3224.0180777730002</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
-        <v>3178.4301402750002</v>
+        <v>3214.0180777730002</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
-        <v>3168.4301402750002</v>
+        <v>3204.0180777730002</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
-        <v>3158.4301402750002</v>
+        <v>3194.0180777730002</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
-        <v>3148.4301402750002</v>
+        <v>3184.0180777730002</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
-        <v>3138.4301402750002</v>
+        <v>3174.0180777730002</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
-        <v>3128.4301402750002</v>
+        <v>3164.0180777730002</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
-        <v>3118.4301402750002</v>
+        <v>3154.0180777730002</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
-        <v>3108.4301402750002</v>
+        <v>3144.0180777730002</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
-        <v>3098.4301402750002</v>
+        <v>3134.0180777730002</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
-        <v>3088.4301402750002</v>
+        <v>3124.0180777730002</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
-        <v>3078.4301402750002</v>
+        <v>3114.0180777730002</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
-        <v>3068.4301402750002</v>
+        <v>3104.0180777730002</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
-        <v>3058.4301402750002</v>
+        <v>3094.0180777730002</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
-        <v>3048.4301402750002</v>
+        <v>3084.0180777730002</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
-        <v>3038.4301402750002</v>
+        <v>3074.0180777730002</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
-        <v>3028.4301402750002</v>
+        <v>3064.0180777730002</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
-        <v>3018.4301402750002</v>
+        <v>3054.0180777730002</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
-        <v>3008.4301402750002</v>
+        <v>3044.0180777730002</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
-        <v>2998.4301402750002</v>
+        <v>3034.0180777730002</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
-        <v>2988.4301402750002</v>
+        <v>3024.0180777730002</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
-        <v>2978.4301402750002</v>
+        <v>3014.0180777730002</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
-        <v>2968.4301402750002</v>
+        <v>3004.0180777730002</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
-        <v>2958.4301402750002</v>
+        <v>2994.0180777730002</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
-        <v>2948.4301402750002</v>
+        <v>2984.0180777730002</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
-        <v>2938.4301402750002</v>
+        <v>2974.0180777730002</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
-        <v>2928.4301402750002</v>
+        <v>2964.0180777730002</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A258" s="1">
-        <v>2918.4301402750002</v>
+        <v>2954.0180777730002</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A259" s="1">
-        <v>2908.4301402750002</v>
+        <v>2944.0180777730002</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A260" s="1">
-        <v>2898.4301402750002</v>
+        <v>2934.0180777730002</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A261" s="1">
-        <v>2888.4301402750002</v>
+        <v>2924.0180777730002</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A262" s="1">
-        <v>2878.4301402750002</v>
+        <v>2914.0180777730002</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A263" s="1">
-        <v>2868.4301402750002</v>
+        <v>2904.0180777730002</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A264" s="1">
-        <v>2858.4301402750002</v>
+        <v>2894.0180777730002</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A265" s="1">
-        <v>2848.4301402750002</v>
+        <v>2884.0180777730002</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A266" s="1">
-        <v>2838.4301402750002</v>
+        <v>2874.0180777730002</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A267" s="1">
-        <v>2828.4301402750002</v>
+        <v>2864.0180777730002</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A268" s="1">
-        <v>2818.4301402750002</v>
+        <v>2854.0180777730002</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A269" s="1">
-        <v>2808.4301402750002</v>
+        <v>2844.0180777730002</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A270" s="1">
-        <v>2798.4301402750002</v>
+        <v>2834.0180777730002</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A271" s="1">
-        <v>2788.4301402750002</v>
+        <v>2824.0180777730002</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A272" s="1">
-        <v>2778.4301402750002</v>
+        <v>2814.0180777730002</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A273" s="1">
-        <v>2768.4301402750002</v>
+        <v>2804.0180777730002</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A274" s="1">
-        <v>2758.4301402750002</v>
+        <v>2794.0180777730002</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A275" s="1">
-        <v>2748.4301402750002</v>
+        <v>2784.0180777730002</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A276" s="1">
-        <v>2738.4301402750002</v>
+        <v>2774.0180777730002</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A277" s="1">
-        <v>2728.4301402750002</v>
+        <v>2764.0180777730002</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A278" s="1">
-        <v>2718.4301402750002</v>
+        <v>2754.0180777730002</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A279" s="1">
-        <v>2708.4301402750002</v>
+        <v>2744.0180777730002</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A280" s="1">
-        <v>2698.4301402750002</v>
+        <v>2734.0180777730002</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A281" s="1">
-        <v>2688.4301402750002</v>
+        <v>2724.0180777730002</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A282" s="1">
-        <v>2678.4301402750002</v>
+        <v>2714.0180777730002</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A283" s="1">
-        <v>2668.4301402750002</v>
+        <v>2704.0180777730002</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A284" s="1">
-        <v>2658.4301402750002</v>
+        <v>2694.0180777730002</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A285" s="1">
-        <v>2648.4301402750002</v>
+        <v>2684.0180777730002</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A286" s="1">
-        <v>2638.4301402750002</v>
+        <v>2674.0180777730002</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A287" s="1">
-        <v>2628.4301402750002</v>
+        <v>2664.0180777730002</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A288" s="1">
-        <v>2618.4301402750002</v>
+        <v>2654.0180777730002</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A289" s="1">
-        <v>2608.4301402750002</v>
+        <v>2644.0180777730002</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A290" s="1">
-        <v>2598.4301402750002</v>
+        <v>2634.0180777730002</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A291" s="1">
-        <v>2588.4301402750002</v>
+        <v>2624.0180777730002</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A292" s="1">
-        <v>2578.4301402750002</v>
+        <v>2614.0180777730002</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A293" s="1">
-        <v>2568.4301402750002</v>
+        <v>2604.0180777730002</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A294" s="1">
-        <v>2558.4301402750002</v>
+        <v>2594.0180777730002</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A295" s="1">
-        <v>2548.4301402750002</v>
+        <v>2584.0180777730002</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A296" s="1">
-        <v>2538.4301402750002</v>
+        <v>2574.0180777730002</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A297" s="1">
-        <v>2528.4301402750002</v>
+        <v>2564.0180777730002</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A298" s="1">
-        <v>2518.4301402750002</v>
+        <v>2554.0180777730002</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A299" s="1">
-        <v>2508.4301402750002</v>
+        <v>2544.0180777730002</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A300" s="1">
-        <v>2498.4301402750002</v>
+        <v>2534.0180777730002</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A301" s="1">
-        <v>2488.4301402750002</v>
+        <v>2524.0180777730002</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A302" s="1">
-        <v>2478.4301402750002</v>
+        <v>2514.0180777730002</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A303" s="1">
-        <v>2468.4301402750002</v>
+        <v>2504.0180777730002</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A304" s="1">
-        <v>2458.4301402750002</v>
+        <v>2494.0180777730002</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A305" s="1">
-        <v>2448.4301402750002</v>
+        <v>2484.0180777730002</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A306" s="1">
-        <v>2438.4301402750002</v>
+        <v>2474.0180777730002</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A307" s="1">
-        <v>2428.4301402750002</v>
+        <v>2464.0180777730002</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A308" s="1">
-        <v>2418.4301402750002</v>
+        <v>2454.0180777730002</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A309" s="1">
-        <v>2408.4301402750002</v>
+        <v>2444.0180777730002</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A310" s="1">
-        <v>2398.4301402750002</v>
+        <v>2434.0180777730002</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A311" s="1">
-        <v>2388.4301402750002</v>
+        <v>2424.0180777730002</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A312" s="1">
-        <v>2378.4301402750002</v>
+        <v>2414.0180777730002</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A313" s="1">
-        <v>2368.4301402750002</v>
+        <v>2404.0180777730002</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A314" s="1">
-        <v>2358.4301402750002</v>
+        <v>2394.0180777730002</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A315" s="1">
-        <v>2348.4301402750002</v>
+        <v>2384.0180777730002</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A316" s="1">
-        <v>2338.4301402750002</v>
+        <v>2374.0180777730002</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A317" s="1">
-        <v>2328.4301402750002</v>
+        <v>2364.0180777730002</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A318" s="1">
-        <v>2318.4301402750002</v>
+        <v>2354.0180777730002</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A319" s="1">
-        <v>2308.4301402750002</v>
+        <v>2344.0180777730002</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A320" s="1">
-        <v>2298.4301402750002</v>
+        <v>2334.0180777730002</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A321" s="1">
-        <v>2288.4301402750002</v>
+        <v>2324.0180777730002</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A322" s="1">
-        <v>2278.4301402750002</v>
+        <v>2314.0180777730002</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A323" s="1">
-        <v>2268.4301402750002</v>
+        <v>2304.0180777730002</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A324" s="1">
-        <v>2258.4301402750002</v>
+        <v>2294.0180777730002</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A325" s="1">
-        <v>2248.4301402750002</v>
+        <v>2284.0180777730002</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A326" s="1">
-        <v>2238.4301402750002</v>
+        <v>2274.0180777730002</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A327" s="1">
-        <v>2228.4301402750002</v>
+        <v>2264.0180777730002</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A328" s="1">
-        <v>2218.4301402750002</v>
+        <v>2254.0180777730002</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A329" s="1">
-        <v>2208.4301402750002</v>
+        <v>2244.0180777730002</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A330" s="1">
-        <v>2198.4301402750002</v>
+        <v>2234.0180777730002</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A331" s="1">
-        <v>2188.4301402750002</v>
+        <v>2224.0180777730002</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A332" s="1">
-        <v>2178.4301402750002</v>
+        <v>2214.0180777730002</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A333" s="1">
-        <v>2168.4301402750002</v>
+        <v>2204.0180777730002</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A334" s="1">
-        <v>2158.4301402750002</v>
+        <v>2194.0180777730002</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A335" s="1">
-        <v>2148.4301402750002</v>
+        <v>2184.0180777730002</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A336" s="1">
-        <v>2138.4301402750002</v>
+        <v>2174.0180777730002</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A337" s="1">
-        <v>2128.4301402750002</v>
+        <v>2164.0180777730002</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A338" s="1">
-        <v>2118.4301402750002</v>
+        <v>2154.0180777730002</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A339" s="1">
-        <v>2108.4301402750002</v>
+        <v>2144.0180777730002</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A340" s="1">
-        <v>2098.4301402750002</v>
+        <v>2134.0180777730002</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A341" s="1">
-        <v>2088.4301402750002</v>
+        <v>2124.0180777730002</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A342" s="1">
-        <v>2078.4301402750002</v>
+        <v>2114.0180777730002</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A343" s="1">
-        <v>2068.4301402750002</v>
+        <v>2104.0180777730002</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A344" s="1">
-        <v>2058.4301402750002</v>
+        <v>2094.0180777730002</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A345" s="1">
-        <v>2048.4301402750002</v>
+        <v>2084.0180777730002</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A346" s="1">
-        <v>2038.430140275</v>
+        <v>2074.0180777730002</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A347" s="1">
-        <v>2028.430140275</v>
+        <v>2064.0180777730002</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A348" s="1">
-        <v>2018.430140275</v>
+        <v>2054.0180777730002</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A349" s="1">
-        <v>2008.430140275</v>
+        <v>2044.018077773</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A350" s="1">
-        <v>1998.430140275</v>
+        <v>2034.018077773</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A351" s="1">
-        <v>1988.430140275</v>
+        <v>2024.018077773</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A352" s="1">
-        <v>1978.430140275</v>
+        <v>2014.018077773</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A353" s="1">
-        <v>1968.430140275</v>
+        <v>2004.018077773</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A354" s="1">
-        <v>1958.430140275</v>
+        <v>1994.018077773</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A355" s="1">
-        <v>1948.430140275</v>
+        <v>1984.018077773</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A356" s="1">
-        <v>1938.430140275</v>
+        <v>1974.018077773</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A357" s="1">
-        <v>1928.430140275</v>
+        <v>1964.018077773</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A358" s="1">
-        <v>1918.430140275</v>
+        <v>1954.018077773</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A359" s="1">
-        <v>1908.430140275</v>
+        <v>1944.018077773</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A360" s="1">
-        <v>1898.430140275</v>
+        <v>1934.018077773</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A361" s="1">
-        <v>1888.430140275</v>
+        <v>1924.018077773</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A362" s="1">
-        <v>1878.430140275</v>
+        <v>1914.018077773</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A363" s="1">
-        <v>1868.430140275</v>
+        <v>1904.018077773</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A364" s="1">
-        <v>1858.430140275</v>
+        <v>1894.018077773</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A365" s="1">
-        <v>1848.430140275</v>
+        <v>1884.018077773</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A366" s="1">
-        <v>1838.430140275</v>
+        <v>1874.018077773</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A367" s="1">
-        <v>1828.430140275</v>
+        <v>1864.018077773</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A368" s="1">
-        <v>1818.430140275</v>
+        <v>1854.018077773</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A369" s="1">
-        <v>1808.430140275</v>
+        <v>1844.018077773</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A370" s="1">
-        <v>1798.430140275</v>
+        <v>1834.018077773</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A371" s="1">
-        <v>1788.430140275</v>
+        <v>1824.018077773</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A372" s="1">
-        <v>1778.430140275</v>
+        <v>1814.018077773</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A373" s="1">
-        <v>1768.430140275</v>
+        <v>1804.018077773</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A374" s="1">
-        <v>1758.430140275</v>
+        <v>1794.018077773</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A375" s="1">
-        <v>1748.430140275</v>
+        <v>1784.018077773</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A376" s="1">
-        <v>1738.430140275</v>
+        <v>1774.018077773</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A377" s="1">
-        <v>1728.430140275</v>
+        <v>1764.018077773</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A378" s="1">
-        <v>1718.430140275</v>
+        <v>1754.018077773</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A379" s="1">
-        <v>1708.430140275</v>
+        <v>1744.018077773</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A380" s="1">
-        <v>1698.430140275</v>
+        <v>1734.018077773</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A381" s="1">
-        <v>1688.430140275</v>
+        <v>1724.018077773</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A382" s="1">
-        <v>1678.430140275</v>
+        <v>1714.018077773</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A383" s="1">
-        <v>1668.430140275</v>
+        <v>1704.018077773</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A384" s="1">
-        <v>1658.430140275</v>
+        <v>1694.018077773</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A385" s="1">
-        <v>1648.430140275</v>
+        <v>1684.018077773</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A386" s="1">
-        <v>1638.430140275</v>
+        <v>1674.018077773</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A387" s="1">
-        <v>1628.430140275</v>
+        <v>1664.018077773</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A388" s="1">
-        <v>1618.430140275</v>
+        <v>1654.018077773</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A389" s="1">
-        <v>1608.430140275</v>
+        <v>1644.018077773</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A390" s="1">
-        <v>1598.430140275</v>
+        <v>1634.018077773</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A391" s="1">
-        <v>1588.430140275</v>
+        <v>1624.018077773</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A392" s="1">
-        <v>1578.430140275</v>
+        <v>1614.018077773</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A393" s="1">
-        <v>1568.430140275</v>
+        <v>1604.018077773</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A394" s="1">
-        <v>1558.430140275</v>
+        <v>1594.018077773</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A395" s="1">
-        <v>1548.430140275</v>
+        <v>1584.018077773</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A396" s="1">
-        <v>1538.430140275</v>
+        <v>1574.018077773</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A397" s="1">
-        <v>1528.430140275</v>
+        <v>1564.018077773</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A398" s="1">
-        <v>1518.430140275</v>
+        <v>1554.018077773</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A399" s="1">
-        <v>1508.430140275</v>
+        <v>1544.018077773</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A400" s="1">
-        <v>1498.430140275</v>
+        <v>1534.018077773</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A401" s="1">
-        <v>1488.430140275</v>
+        <v>1524.018077773</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A402" s="1">
-        <v>1478.430140275</v>
+        <v>1514.018077773</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A403" s="1">
-        <v>1468.430140275</v>
+        <v>1504.018077773</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A404" s="1">
-        <v>1458.430140275</v>
+        <v>1494.018077773</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A405" s="1">
-        <v>1448.430140275</v>
+        <v>1484.018077773</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A406" s="1">
-        <v>1438.430140275</v>
+        <v>1474.018077773</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A407" s="1">
-        <v>1428.430140275</v>
+        <v>1464.018077773</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A408" s="1">
-        <v>1418.430140275</v>
+        <v>1454.018077773</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A409" s="1">
-        <v>1408.430140275</v>
+        <v>1444.018077773</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A410" s="1">
-        <v>1398.430140275</v>
+        <v>1434.018077773</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A411" s="1">
-        <v>1388.430140275</v>
+        <v>1424.018077773</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A412" s="1">
-        <v>1378.430140275</v>
+        <v>1414.018077773</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A413" s="1">
-        <v>1368.430140275</v>
+        <v>1404.018077773</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A414" s="1">
-        <v>1358.430140275</v>
+        <v>1394.018077773</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A415" s="1">
-        <v>1348.430140275</v>
+        <v>1384.018077773</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A416" s="1">
-        <v>1338.430140275</v>
+        <v>1374.018077773</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A417" s="1">
-        <v>1328.430140275</v>
+        <v>1364.018077773</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A418" s="1">
-        <v>1318.430140275</v>
+        <v>1354.018077773</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A419" s="1">
-        <v>1308.430140275</v>
+        <v>1344.018077773</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A420" s="1">
-        <v>1298.430140275</v>
+        <v>1334.018077773</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A421" s="1">
-        <v>1288.430140275</v>
+        <v>1324.018077773</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A422" s="1">
-        <v>1278.430140275</v>
+        <v>1314.018077773</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A423" s="1">
-        <v>1268.430140275</v>
+        <v>1304.018077773</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A424" s="1">
-        <v>1258.430140275</v>
+        <v>1294.018077773</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A425" s="1">
-        <v>1248.430140275</v>
+        <v>1284.018077773</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A426" s="1">
-        <v>1238.430140275</v>
+        <v>1274.018077773</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A427" s="1">
-        <v>1228.430140275</v>
+        <v>1264.018077773</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A428" s="1">
-        <v>1218.430140275</v>
+        <v>1254.018077773</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A429" s="1">
-        <v>1208.430140275</v>
+        <v>1244.018077773</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A430" s="1">
-        <v>1198.430140275</v>
+        <v>1234.018077773</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A431" s="1">
-        <v>1188.430140275</v>
+        <v>1224.018077773</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A432" s="1">
-        <v>1178.430140275</v>
+        <v>1214.018077773</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A433" s="1">
-        <v>1168.430140275</v>
+        <v>1204.018077773</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A434" s="1">
-        <v>1158.430140275</v>
+        <v>1194.018077773</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A435" s="1">
-        <v>1148.430140275</v>
+        <v>1184.018077773</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A436" s="1">
-        <v>1138.430140275</v>
+        <v>1174.018077773</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A437" s="1">
-        <v>1128.430140275</v>
+        <v>1164.018077773</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A438" s="1">
-        <v>1118.430140275</v>
+        <v>1154.018077773</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A439" s="1">
-        <v>1108.430140275</v>
+        <v>1144.018077773</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A440" s="1">
-        <v>1098.430140275</v>
+        <v>1134.018077773</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A441" s="1">
-        <v>1088.430140275</v>
+        <v>1124.018077773</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A442" s="1">
-        <v>1078.430140275</v>
+        <v>1114.018077773</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A443" s="1">
-        <v>1068.430140275</v>
+        <v>1104.018077773</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A444" s="1">
-        <v>1058.430140275</v>
+        <v>1094.018077773</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A445" s="1">
-        <v>1048.430140275</v>
+        <v>1084.018077773</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A446" s="1">
-        <v>1038.430140275</v>
+        <v>1074.018077773</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A447" s="1">
-        <v>1028.430140275</v>
+        <v>1064.018077773</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A448" s="1">
-        <v>1018.430140275</v>
+        <v>1054.018077773</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A449" s="1">
-        <v>1008.430140275</v>
+        <v>1044.018077773</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A450" s="1">
-        <v>998.43014027499999</v>
+        <v>1034.018077773</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A451" s="1">
-        <v>988.43014027499999</v>
+        <v>1024.018077773</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A452" s="1">
-        <v>978.43014027499999</v>
+        <v>1014.018077773</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A453" s="1">
-        <v>968.43014027499999</v>
+        <v>1004.018077773</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A454" s="1">
-        <v>958.43014027499999</v>
+        <v>994.01807777299996</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A455" s="1">
-        <v>948.43014027499999</v>
+        <v>984.01807777299996</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A456" s="1">
-        <v>938.43014027499999</v>
+        <v>974.01807777299996</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A457" s="1">
-        <v>928.43014027499999</v>
+        <v>964.01807777299996</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A458" s="1">
-        <v>918.43014027499999</v>
+        <v>954.01807777299996</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A459" s="1">
-        <v>908.43014027499999</v>
+        <v>944.01807777299996</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A460" s="1">
-        <v>898.43014027499999</v>
+        <v>934.01807777299996</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A461" s="1">
-        <v>888.43014027499999</v>
+        <v>924.01807777299996</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A462" s="1">
-        <v>878.43014027499999</v>
+        <v>914.01807777299996</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A463" s="1">
-        <v>868.43014027499999</v>
+        <v>904.01807777299996</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A464" s="1">
-        <v>858.43014027499999</v>
+        <v>894.01807777299996</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A465" s="1">
-        <v>848.43014027499999</v>
+        <v>884.01807777299996</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A466" s="1">
-        <v>838.43014027499999</v>
+        <v>874.01807777299996</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A467" s="1">
-        <v>828.43014027499999</v>
+        <v>864.01807777299996</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A468" s="1">
-        <v>818.43014027499999</v>
+        <v>854.01807777299996</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A469" s="1">
-        <v>808.43014027499999</v>
+        <v>844.01807777299996</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A470" s="1">
-        <v>798.43014027499999</v>
+        <v>834.01807777299996</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A471" s="1">
-        <v>788.43014027499999</v>
+        <v>824.01807777299996</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A472" s="1">
-        <v>778.43014027499999</v>
+        <v>814.01807777299996</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A473" s="1">
-        <v>768.43014027499999</v>
+        <v>804.01807777299996</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A474" s="1">
-        <v>758.43014027499999</v>
+        <v>794.01807777299996</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A475" s="1">
-        <v>748.43014027499999</v>
+        <v>784.01807777299996</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A476" s="1">
-        <v>738.43014027499999</v>
+        <v>774.01807777299996</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A477" s="1">
-        <v>728.43014027499999</v>
+        <v>764.01807777299996</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A478" s="1">
-        <v>718.43014027499999</v>
+        <v>754.01807777299996</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A479" s="1">
-        <v>708.43014027499999</v>
+        <v>744.01807777299996</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A480" s="1">
-        <v>698.43014027499999</v>
+        <v>734.01807777299996</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A481" s="1">
-        <v>688.43014027499999</v>
+        <v>724.01807777299996</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A482" s="1">
-        <v>678.43014027499999</v>
+        <v>714.01807777299996</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A483" s="1">
-        <v>668.43014027499999</v>
+        <v>704.01807777299996</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A484" s="1">
-        <v>658.43014027499999</v>
+        <v>694.01807777299996</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A485" s="1">
-        <v>648.43014027499999</v>
+        <v>684.01807777299996</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A486" s="1">
-        <v>638.43014027499999</v>
+        <v>674.01807777299996</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A487" s="1">
-        <v>628.43014027499999</v>
+        <v>664.01807777299996</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A488" s="1">
-        <v>618.43014027499999</v>
+        <v>654.01807777299996</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A489" s="1">
-        <v>608.43014027499999</v>
+        <v>644.01807777299996</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A490" s="1">
-        <v>598.43014027499999</v>
+        <v>634.01807777299996</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A491" s="1">
-        <v>588.43014027499999</v>
+        <v>624.01807777299996</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A492" s="1">
-        <v>578.43014027499999</v>
+        <v>614.01807777299996</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A493" s="1">
-        <v>568.43014027499999</v>
+        <v>604.01807777299996</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A494" s="1">
-        <v>558.43014027499999</v>
+        <v>594.01807777299996</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A495" s="1">
-        <v>548.43014027499999</v>
+        <v>584.01807777299996</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A496" s="1">
-        <v>538.43014027499999</v>
+        <v>574.01807777299996</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A497" s="1">
-        <v>528.43014027499999</v>
+        <v>564.01807777299996</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A498" s="1">
-        <v>518.43014027499999</v>
+        <v>554.01807777299996</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A499" s="1">
-        <v>508.43014027499999</v>
+        <v>544.01807777299996</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A500" s="1">
-        <v>498.43014027499999</v>
+        <v>534.01807777299996</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A501" s="1">
-        <v>488.43014027499999</v>
+        <v>524.01807777299996</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A502" s="1">
-        <v>478.43014027499999</v>
+        <v>514.01807777299996</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A503" s="1">
-        <v>468.43014027499999</v>
+        <v>504.01807777300002</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A504" s="1">
-        <v>458.43014027499999</v>
+        <v>494.01807777300002</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A505" s="1">
-        <v>448.43014027499999</v>
+        <v>484.01807777300002</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A506" s="1">
-        <v>438.43014027499999</v>
+        <v>474.01807777300002</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A507" s="1">
-        <v>428.43014027499999</v>
+        <v>464.01807777300002</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A508" s="1">
-        <v>418.43014027499999</v>
+        <v>454.01807777300002</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A509" s="1">
-        <v>408.43014027499999</v>
+        <v>444.01807777300002</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A510" s="1">
-        <v>398.43014027499999</v>
+        <v>434.01807777300002</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A511" s="1">
-        <v>388.43014027499999</v>
+        <v>424.01807777300002</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A512" s="1">
-        <v>378.43014027499999</v>
+        <v>414.01807777300002</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A513" s="1">
-        <v>368.43014027499999</v>
+        <v>404.01807777300002</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A514" s="1">
-        <v>358.43014027499999</v>
+        <v>394.38273158200002</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A515" s="1">
-        <v>349.29474702599998</v>
+        <v>386.44583658200003</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A516" s="1">
-        <v>341.35785202599999</v>
+        <v>378.50894158199998</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A517" s="1">
-        <v>333.420957026</v>
+        <v>370.57204658199998</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A518" s="1">
-        <v>325.484062026</v>
+        <v>362.63515158199999</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A519" s="1">
-        <v>317.54716702600001</v>
+        <v>354.95985584499999</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A520" s="1">
-        <v>312.55546320100001</v>
+        <v>350.45985584499999</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A521" s="1">
-        <v>308.05546320100001</v>
+        <v>345.95985584499999</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A522" s="1">
-        <v>303.55546320100001</v>
+        <v>341.45985584499999</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A523" s="1">
-        <v>299.54716702600001</v>
+        <v>336.95985584499999</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A524" s="1">
-        <v>298.484062026</v>
+        <v>335.63515158199999</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A525" s="1">
-        <v>297.420957026</v>
+        <v>334.57204658199998</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A526" s="1">
-        <v>296.35785202599999</v>
+        <v>333.50894158199998</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A527" s="1">
-        <v>295.29474702599998</v>
+        <v>332.44583658200003</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A528" s="1">
-        <v>295.43014027499999</v>
+        <v>331.38273158200002</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A529" s="1">
-        <v>296.43014027499999</v>
+        <v>332.01807777300002</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A530" s="1">
-        <v>297.43014027499999</v>
+        <v>333.01807777300002</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A531" s="1">
-        <v>298.43014027499999</v>
+        <v>334.01807777300002</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A532" s="1">
-        <v>299.43014027499999</v>
+        <v>335.01807777300002</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A533" s="1">
-        <v>300.43014027499999</v>
+        <v>336.01807777300002</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A534" s="1">
-        <v>301.43014027499999</v>
+        <v>337.01807777300002</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A535" s="1">
-        <v>302.43014027499999</v>
+        <v>338.01807777300002</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A536" s="1">
-        <v>303.43014027499999</v>
+        <v>339.01807777300002</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A537" s="1">
-        <v>304.43014027499999</v>
+        <v>340.01807777300002</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A538" s="1">
-        <v>305.43014027499999</v>
+        <v>341.01807777300002</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A539" s="1">
-        <v>306.43014027499999</v>
+        <v>342.01807777300002</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A540" s="1">
-        <v>307.43014027499999</v>
+        <v>343.01807777300002</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A541" s="1">
-        <v>308.43014027499999</v>
+        <v>344.01807777300002</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A542" s="1">
-        <v>309.43014027499999</v>
+        <v>345.01807777300002</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A543" s="1">
-        <v>310.43014027499999</v>
+        <v>346.01807777300002</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A544" s="1">
-        <v>311.43014027499999</v>
+        <v>347.01807777300002</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A545" s="1">
-        <v>312.43014027499999</v>
+        <v>348.01807777300002</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A546" s="1">
-        <v>313.43014027499999</v>
+        <v>349.01807777300002</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A547" s="1">
-        <v>314.43014027499999</v>
+        <v>350.01807777300002</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A548" s="1">
-        <v>315.43014027499999</v>
+        <v>351.01807777300002</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A549" s="1">
-        <v>316.43014027499999</v>
+        <v>352.01807777300002</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A550" s="1">
-        <v>317.43014027499999</v>
+        <v>353.01807777300002</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A551" s="1">
-        <v>312.18922431099998</v>
+        <v>352.58183591</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A552" s="1">
-        <v>305.25232931099998</v>
+        <v>345.64494091</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A553" s="1">
-        <v>298.31543431099999</v>
+        <v>338.70804591000001</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A554" s="1">
-        <v>291.378539311</v>
+        <v>331.77115091000002</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A555" s="1">
-        <v>284.441644311</v>
+        <v>324.83425591000002</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A556" s="1">
-        <v>277.50474931100001</v>
+        <v>317.89736090999997</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A557" s="1">
-        <v>270.56785431100002</v>
+        <v>313.16810134799999</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A558" s="1">
-        <v>264.37437182500003</v>
+        <v>309.66810134799999</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A559" s="1">
-        <v>260.87437182500003</v>
+        <v>306.16810134799999</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A560" s="1">
-        <v>257.37437182500003</v>
+        <v>302.66810134799999</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A561" s="1">
-        <v>253.874371825</v>
+        <v>299.16810134799999</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A562" s="1">
-        <v>250.374371825</v>
+        <v>295.66810134799999</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A563" s="1">
-        <v>246.874371825</v>
+        <v>292.16810134799999</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A564" s="1">
-        <v>243.374371825</v>
+        <v>288.66810134799999</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A565" s="1">
-        <v>242.56785431099999</v>
+        <v>285.16810134799999</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A566" s="1">
-        <v>242.50474931100001</v>
+        <v>282.89736090999997</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A567" s="1">
-        <v>242.441644311</v>
+        <v>282.83425591000002</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A568" s="1">
-        <v>242.378539311</v>
+        <v>282.77115091000002</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A569" s="1">
-        <v>242.31543431099999</v>
+        <v>282.70804591000001</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A570" s="1">
-        <v>242.25232931100001</v>
+        <v>282.64494091</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A571" s="1">
-        <v>242.189224311</v>
+        <v>282.58183591</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A572" s="1">
-        <v>242.126119311</v>
+        <v>282.51873090999999</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A573" s="1">
-        <v>243.88231540199999</v>
+        <v>282.45562590999998</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A574" s="1">
-        <v>245.88231540199999</v>
+        <v>282.39252090999997</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A575" s="1">
-        <v>247.88231540199999</v>
+        <v>282.32941591000002</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A576" s="1">
-        <v>249.88231540199999</v>
+        <v>282.26631091000002</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A577" s="1">
-        <v>251.88231540199999</v>
+        <v>282.20320591000001</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A578" s="1">
-        <v>253.88231540199999</v>
+        <v>284.10479403300002</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A579" s="1">
-        <v>255.88231540199999</v>
+        <v>286.10479403300002</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A580" s="1">
-        <v>257.88231540200002</v>
+        <v>288.10479403300002</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A581" s="1">
-        <v>259.88231540200002</v>
+        <v>290.10479403300002</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A582" s="1">
-        <v>261.88231540200002</v>
+        <v>292.10479403300002</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A583" s="1">
-        <v>263.88231540200002</v>
+        <v>294.10479403300002</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A584" s="1">
-        <v>265.88231540200002</v>
+        <v>296.10479403300002</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A585" s="1">
-        <v>267.88231540200002</v>
+        <v>298.10479403300002</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A586" s="1">
-        <v>269.88231540200002</v>
+        <v>300.10479403300002</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A587" s="1">
-        <v>271.88231540200002</v>
+        <v>302.10479403300002</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A588" s="1">
-        <v>273.88231540200002</v>
+        <v>304.10479403300002</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A589" s="1">
-        <v>275.88231540200002</v>
+        <v>306.10479403300002</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A590" s="1">
-        <v>277.88231540200002</v>
+        <v>308.10479403300002</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A591" s="1">
-        <v>279.88231540200002</v>
+        <v>310.10479403300002</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A592" s="1">
-        <v>281.88231540200002</v>
+        <v>312.10479403300002</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A593" s="1">
-        <v>283.88231540200002</v>
+        <v>314.10479403300002</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A594" s="1">
-        <v>285.88231540200002</v>
+        <v>316.10479403300002</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A595" s="1">
-        <v>287.88231540200002</v>
+        <v>318.10479403300002</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A596" s="1">
-        <v>289.88231540200002</v>
+        <v>320.10479403300002</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A597" s="1">
-        <v>291.88231540200002</v>
+        <v>322.10479403300002</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A598" s="1">
-        <v>293.88231540200002</v>
+        <v>324.10479403300002</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A599" s="1">
-        <v>295.88231540200002</v>
+        <v>326.10479403300002</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A600" s="1">
-        <v>297.88231540200002</v>
+        <v>328.10479403300002</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A601" s="1">
-        <v>299.88231540200002</v>
+        <v>330.10479403300002</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A602" s="1">
-        <v>301.88231540200002</v>
+        <v>332.10479403300002</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A603" s="1">
-        <v>303.88231540200002</v>
+        <v>334.10479403300002</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A604" s="1">
-        <v>305.88231540200002</v>
+        <v>336.10479403300002</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A605" s="1">
-        <v>307.88231540200002</v>
+        <v>338.10479403300002</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A606" s="1">
-        <v>309.88231540200002</v>
+        <v>340.10479403300002</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A607" s="1">
-        <v>311.88231540200002</v>
+        <v>342.10479403300002</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A608" s="1">
-        <v>313.88231540200002</v>
+        <v>344.10479403300002</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A609" s="1">
-        <v>315.88231540200002</v>
+        <v>346.10479403300002</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A610" s="1">
-        <v>317.88231540200002</v>
+        <v>348.10479403300002</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A611" s="1">
-        <v>319.88231540200002</v>
+        <v>350.10479403300002</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A612" s="1">
-        <v>321.88231540200002</v>
+        <v>352.10479403300002</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A613" s="1">
-        <v>323.88231540200002</v>
+        <v>354.10479403300002</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A614" s="1">
-        <v>325.88231540200002</v>
+        <v>356.10479403300002</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A615" s="1">
-        <v>327.88231540200002</v>
+        <v>358.10479403300002</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A616" s="1">
-        <v>329.88231540200002</v>
+        <v>360.10479403300002</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A617" s="1">
-        <v>331.88231540200002</v>
+        <v>362.10479403300002</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A618" s="1">
-        <v>333.88231540200002</v>
+        <v>364.10479403300002</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A619" s="1">
-        <v>333.15113690999999</v>
+        <v>366.10479403300002</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A620" s="1">
-        <v>330.65113690999999</v>
+        <v>368.10479403300002</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A621" s="1">
-        <v>328.15113690999999</v>
+        <v>370.10479403300002</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A622" s="1">
-        <v>325.65113690999999</v>
+        <v>370.69365257200002</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A623" s="1">
-        <v>323.15113690999999</v>
+        <v>368.19365257200002</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A624" s="1">
-        <v>320.65113690999999</v>
+        <v>365.69365257200002</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A625" s="1">
-        <v>318.15113690999999</v>
+        <v>363.19365257200002</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A626" s="1">
-        <v>317.202757287</v>
+        <v>360.69365257200002</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A627" s="1">
-        <v>318.13965228699999</v>
+        <v>358.19365257200002</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A628" s="1">
-        <v>319.07654728699998</v>
+        <v>355.69365257200002</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A629" s="1">
-        <v>320.01344228699998</v>
+        <v>353.99063062900001</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A630" s="1">
-        <v>320.95033728700002</v>
+        <v>354.927525629</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A631" s="1">
-        <v>321.88723228700002</v>
+        <v>355.86442062899999</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A632" s="1">
-        <v>322.82412728700001</v>
+        <v>356.80131562899999</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A633" s="1">
-        <v>323.761022287</v>
+        <v>357.73821062899998</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A634" s="1">
-        <v>324.697917287</v>
+        <v>358.67510562899997</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A635" s="1">
-        <v>325.63481228699999</v>
+        <v>359.61200062900002</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A636" s="1">
-        <v>326.57170728699998</v>
+        <v>360.54889562900001</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A637" s="1">
-        <v>328.07910970400002</v>
+        <v>361.48579062900001</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A638" s="1">
-        <v>331.07910970400002</v>
+        <v>362.422685629</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A639" s="1">
-        <v>334.07910970400002</v>
+        <v>363.35958062899999</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A640" s="1">
-        <v>337.07910970400002</v>
+        <v>364.29647562899999</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A641" s="1">
-        <v>340.07910970400002</v>
+        <v>365.23337062899998</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A642" s="1">
-        <v>343.07910970400002</v>
+        <v>366.17026562900003</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A643" s="1">
-        <v>346.07910970400002</v>
+        <v>367.10716062900002</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A644" s="1">
-        <v>349.07910970400002</v>
+        <v>368.04405562900001</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A645" s="1">
-        <v>352.07910970400002</v>
+        <v>368.98095062900001</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A646" s="1">
-        <v>355.07910970400002</v>
+        <v>369.917845629</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A647" s="1">
-        <v>358.07910970400002</v>
+        <v>370.85474062899999</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A648" s="1">
-        <v>361.07910970400002</v>
+        <v>372.09503657099998</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A649" s="1">
-        <v>364.07910970400002</v>
+        <v>375.09503657099998</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A650" s="1">
-        <v>367.07910970400002</v>
+        <v>378.09503657099998</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A651" s="1">
-        <v>370.07910970400002</v>
+        <v>381.09503657099998</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A652" s="1">
-        <v>373.07910970400002</v>
+        <v>384.09503657099998</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A653" s="1">
-        <v>370.312637714</v>
+        <v>387.09503657099998</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A654" s="1">
-        <v>365.37574271400001</v>
+        <v>390.09503657099998</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A655" s="1">
-        <v>360.43884771400002</v>
+        <v>393.09503657099998</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A656" s="1">
-        <v>356.368743365</v>
+        <v>396.09503657099998</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A657" s="1">
-        <v>354.868743365</v>
+        <v>399.09503657099998</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A658" s="1">
-        <v>353.368743365</v>
+        <v>398.51466192200002</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A659" s="1">
-        <v>351.868743365</v>
+        <v>397.01466192200002</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A660" s="1">
-        <v>350.368743365</v>
+        <v>395.51466192200002</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A661" s="1">
-        <v>348.868743365</v>
+        <v>394.01466192200002</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A662" s="1">
-        <v>347.368743365</v>
+        <v>392.51466192200002</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A663" s="1">
-        <v>345.868743365</v>
+        <v>391.01466192200002</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A664" s="1">
-        <v>344.368743365</v>
+        <v>389.51466192200002</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A665" s="1">
-        <v>342.868743365</v>
+        <v>388.01466192200002</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A666" s="1">
-        <v>341.368743365</v>
+        <v>386.51466192200002</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A667" s="1">
-        <v>342.43884771400002</v>
+        <v>385.01466192200002</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A668" s="1">
-        <v>344.37574271400001</v>
+        <v>383.51466192200002</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A669" s="1">
-        <v>346.312637714</v>
+        <v>382.01466192200002</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A670" s="1">
-        <v>348.249532714</v>
+        <v>381.17382411699998</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A671" s="1">
-        <v>350.18642771399999</v>
+        <v>383.11071911699997</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A672" s="1">
-        <v>352.12332271399998</v>
+        <v>385.04761411700002</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A673" s="1">
-        <v>354.06021771399998</v>
+        <v>386.98450911700002</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A674" s="1">
-        <v>355.99711271400002</v>
+        <v>388.92140411700001</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A675" s="1">
-        <v>357.93400771400002</v>
+        <v>390.858299117</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A676" s="1">
-        <v>359.87090271400001</v>
+        <v>392.79519411699999</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A677" s="1">
-        <v>361.807797714</v>
+        <v>394.73208911699999</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A678" s="1">
-        <v>363.744692714</v>
+        <v>396.66898411699998</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A679" s="1">
-        <v>365.68158771399999</v>
+        <v>398.60587911699997</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A680" s="1">
-        <v>369.35994766800002</v>
+        <v>400.54277411700002</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A681" s="1">
-        <v>373.35994766800002</v>
+        <v>402.47966911700001</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A682" s="1">
-        <v>377.35994766800002</v>
+        <v>404.41656411700001</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A683" s="1">
-        <v>381.35994766800002</v>
+        <v>406.353459117</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A684" s="1">
-        <v>385.35994766800002</v>
+        <v>408.29035411699999</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A685" s="1">
-        <v>389.35994766800002</v>
+        <v>410.22724911699999</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A686" s="1">
-        <v>393.35994766800002</v>
+        <v>412.16414411699998</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A687" s="1">
-        <v>397.35994766800002</v>
+        <v>414.10103911700003</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A688" s="1">
-        <v>401.35994766800002</v>
+        <v>416.03793411700002</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A689" s="1">
-        <v>405.35994766800002</v>
+        <v>417.97482911700001</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A690" s="1">
-        <v>409.35994766800002</v>
+        <v>419.91172411700001</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A691" s="1">
-        <v>413.35994766800002</v>
+        <v>421.848619117</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A692" s="1">
-        <v>417.35994766800002</v>
+        <v>424.923581528</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A693" s="1">
-        <v>421.35994766800002</v>
+        <v>428.923581528</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A694" s="1">
-        <v>425.35994766800002</v>
+        <v>432.923581528</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A695" s="1">
-        <v>429.35994766800002</v>
+        <v>436.923581528</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A696" s="1">
-        <v>433.35994766800002</v>
+        <v>440.923581528</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A697" s="1">
-        <v>437.35994766800002</v>
+        <v>444.923581528</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A698" s="1">
-        <v>441.35994766800002</v>
+        <v>448.923581528</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A699" s="1">
-        <v>445.35994766800002</v>
+        <v>452.923581528</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A700" s="1">
-        <v>449.35994766800002</v>
+        <v>456.923581528</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A701" s="1">
-        <v>453.35994766800002</v>
+        <v>460.923581528</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A702" s="1">
-        <v>457.35994766800002</v>
+        <v>464.923581528</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A703" s="1">
-        <v>461.35994766800002</v>
+        <v>468.923581528</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A704" s="1">
-        <v>465.35994766800002</v>
+        <v>472.923581528</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A705" s="1">
-        <v>469.35994766800002</v>
+        <v>476.923581528</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A706" s="1">
-        <v>473.35994766800002</v>
+        <v>480.923581528</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A707" s="1">
-        <v>477.35994766800002</v>
+        <v>484.923581528</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A708" s="1">
-        <v>481.35994766800002</v>
+        <v>488.923581528</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A709" s="1">
-        <v>485.35994766800002</v>
+        <v>492.923581528</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A710" s="1">
-        <v>489.35994766800002</v>
+        <v>496.923581528</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A711" s="1">
-        <v>493.35994766800002</v>
+        <v>500.923581528</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A712" s="1">
-        <v>497.35994766800002</v>
+        <v>504.923581528</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A713" s="1">
-        <v>501.35994766800002</v>
+        <v>508.923581528</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A714" s="1">
-        <v>505.35994766800002</v>
+        <v>512.923581528</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A715" s="1">
-        <v>509.35994766800002</v>
+        <v>516.923581528</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A716" s="1">
-        <v>513.35994766800002</v>
+        <v>520.923581528</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A717" s="1">
-        <v>517.35994766800002</v>
+        <v>524.923581528</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A718" s="1">
-        <v>521.35994766800002</v>
+        <v>528.923581528</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A719" s="1">
-        <v>525.35994766800002</v>
+        <v>532.923581528</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A720" s="1">
-        <v>529.35994766800002</v>
+        <v>536.923581528</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A721" s="1">
-        <v>533.35994766800002</v>
+        <v>540.923581528</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A722" s="1">
-        <v>537.35994766800002</v>
+        <v>544.923581528</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A723" s="1">
-        <v>541.35994766800002</v>
+        <v>548.923581528</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A724" s="1">
-        <v>545.35994766800002</v>
+        <v>552.923581528</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A725" s="1">
-        <v>549.35994766800002</v>
+        <v>556.923581528</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A726" s="1">
-        <v>553.35994766800002</v>
+        <v>560.923581528</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A727" s="1">
-        <v>557.35994766800002</v>
+        <v>564.923581528</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A728" s="1">
-        <v>561.35994766800002</v>
+        <v>568.923581528</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A729" s="1">
-        <v>565.35994766800002</v>
+        <v>572.923581528</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A730" s="1">
-        <v>569.35994766800002</v>
+        <v>576.923581528</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A731" s="1">
-        <v>573.35994766800002</v>
+        <v>580.923581528</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A732" s="1">
-        <v>577.35994766800002</v>
+        <v>584.923581528</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A733" s="1">
-        <v>581.35994766800002</v>
+        <v>588.923581528</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A734" s="1">
-        <v>585.35994766800002</v>
+        <v>592.923581528</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A735" s="1">
-        <v>589.35994766800002</v>
+        <v>596.923581528</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A736" s="1">
-        <v>593.35994766800002</v>
+        <v>600.923581528</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A737" s="1">
-        <v>597.35994766800002</v>
+        <v>604.923581528</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A738" s="1">
-        <v>601.35994766800002</v>
+        <v>608.923581528</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A739" s="1">
-        <v>605.35994766800002</v>
+        <v>612.923581528</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A740" s="1">
-        <v>609.35994766800002</v>
+        <v>616.923581528</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A741" s="1">
-        <v>613.35994766800002</v>
+        <v>620.923581528</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A742" s="1">
-        <v>617.35994766800002</v>
+        <v>624.923581528</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A743" s="1">
-        <v>621.35994766800002</v>
+        <v>628.923581528</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A744" s="1">
-        <v>625.35994766800002</v>
+        <v>632.923581528</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A745" s="1">
-        <v>629.35994766800002</v>
+        <v>636.923581528</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A746" s="1">
-        <v>633.35994766800002</v>
+        <v>640.923581528</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A747" s="1">
-        <v>637.35994766800002</v>
+        <v>644.923581528</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A748" s="1">
-        <v>641.35994766800002</v>
+        <v>648.923581528</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A749" s="1">
-        <v>645.35994766800002</v>
+        <v>652.923581528</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A750" s="1">
-        <v>649.35994766800002</v>
+        <v>656.923581528</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A751" s="1">
-        <v>653.35994766800002</v>
+        <v>660.923581528</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A752" s="1">
-        <v>657.35994766800002</v>
+        <v>664.923581528</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A753" s="1">
-        <v>661.35994766800002</v>
+        <v>668.923581528</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A754" s="1">
-        <v>665.35994766800002</v>
+        <v>672.923581528</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A755" s="1">
-        <v>669.35994766800002</v>
+        <v>676.923581528</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A756" s="1">
-        <v>673.35994766800002</v>
+        <v>680.923581528</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A757" s="1">
-        <v>677.35994766800002</v>
+        <v>684.923581528</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A758" s="1">
-        <v>681.35994766800002</v>
+        <v>688.923581528</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A759" s="1">
-        <v>685.35994766800002</v>
+        <v>692.923581528</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A760" s="1">
-        <v>689.35994766800002</v>
+        <v>696.923581528</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A761" s="1">
-        <v>693.35994766800002</v>
+        <v>700.923581528</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A762" s="1">
-        <v>697.35994766800002</v>
+        <v>704.923581528</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A763" s="1">
-        <v>701.35994766800002</v>
+        <v>708.923581528</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A764" s="1">
-        <v>705.35994766800002</v>
+        <v>712.923581528</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A765" s="1">
-        <v>709.35994766800002</v>
+        <v>716.923581528</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A766" s="1">
-        <v>713.35994766800002</v>
+        <v>720.923581528</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A767" s="1">
-        <v>717.35994766800002</v>
+        <v>724.923581528</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A768" s="1">
-        <v>721.35994766800002</v>
+        <v>728.923581528</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A769" s="1">
-        <v>725.35994766800002</v>
+        <v>732.923581528</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A770" s="1">
-        <v>729.35994766800002</v>
+        <v>736.923581528</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A771" s="1">
-        <v>733.35994766800002</v>
+        <v>740.923581528</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A772" s="1">
-        <v>737.35994766800002</v>
+        <v>744.923581528</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A773" s="1">
-        <v>741.35994766800002</v>
+        <v>748.923581528</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A774" s="1">
-        <v>745.35994766800002</v>
+        <v>752.923581528</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A775" s="1">
-        <v>749.35994766800002</v>
+        <v>756.923581528</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A776" s="1">
-        <v>753.35994766800002</v>
+        <v>760.923581528</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A777" s="1">
-        <v>757.35994766800002</v>
+        <v>764.923581528</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A778" s="1">
-        <v>761.35994766800002</v>
+        <v>768.923581528</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A779" s="1">
-        <v>765.35994766800002</v>
+        <v>772.923581528</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A780" s="1">
-        <v>769.35994766800002</v>
+        <v>776.923581528</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A781" s="1">
-        <v>773.35994766800002</v>
+        <v>780.923581528</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A782" s="1">
-        <v>777.35994766800002</v>
+        <v>784.923581528</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A783" s="1">
-        <v>781.35994766800002</v>
+        <v>788.923581528</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A784" s="1">
-        <v>785.35994766800002</v>
+        <v>792.923581528</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A785" s="1">
-        <v>789.35994766800002</v>
+        <v>796.923581528</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A786" s="1">
-        <v>793.35994766800002</v>
+        <v>800.923581528</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A787" s="1">
-        <v>797.35994766800002</v>
+        <v>804.923581528</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A788" s="1">
-        <v>801.35994766800002</v>
+        <v>808.923581528</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A789" s="1">
-        <v>805.35994766800002</v>
+        <v>812.923581528</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A790" s="1">
-        <v>809.35994766800002</v>
+        <v>816.923581528</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A791" s="1">
-        <v>813.35994766800002</v>
+        <v>820.923581528</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A792" s="1">
-        <v>817.35994766800002</v>
+        <v>824.923581528</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A793" s="1">
-        <v>821.35994766800002</v>
+        <v>828.923581528</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A794" s="1">
-        <v>825.35994766800002</v>
+        <v>832.923581528</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A795" s="1">
-        <v>829.35994766800002</v>
+        <v>836.923581528</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A796" s="1">
-        <v>833.35994766800002</v>
+        <v>840.923581528</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A797" s="1">
-        <v>837.35994766800002</v>
+        <v>844.923581528</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A798" s="1">
-        <v>841.35994766800002</v>
+        <v>848.923581528</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A799" s="1">
-        <v>845.35994766800002</v>
+        <v>852.923581528</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A800" s="1">
-        <v>849.35994766800002</v>
+        <v>856.923581528</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A801" s="1">
-        <v>853.35994766800002</v>
+        <v>860.923581528</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A802" s="1">
-        <v>857.35994766800002</v>
+        <v>864.923581528</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A803" s="1">
-        <v>861.35994766800002</v>
+        <v>868.923581528</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A804" s="1">
-        <v>865.35994766800002</v>
+        <v>872.923581528</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A805" s="1">
-        <v>869.35994766800002</v>
+        <v>876.923581528</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A806" s="1">
-        <v>873.35994766800002</v>
+        <v>880.923581528</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A807" s="1">
-        <v>877.35994766800002</v>
+        <v>884.923581528</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A808" s="1">
-        <v>881.35994766800002</v>
+        <v>888.923581528</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A809" s="1">
-        <v>885.35994766800002</v>
+        <v>892.923581528</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A810" s="1">
-        <v>889.35994766800002</v>
+        <v>896.923581528</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A811" s="1">
-        <v>893.35994766800002</v>
+        <v>900.923581528</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A812" s="1">
-        <v>897.35994766800002</v>
+        <v>904.923581528</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A813" s="1">
-        <v>901.35994766800002</v>
+        <v>908.923581528</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A814" s="1">
-        <v>905.35994766800002</v>
+        <v>912.923581528</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A815" s="1">
-        <v>909.35994766800002</v>
+        <v>916.923581528</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A816" s="1">
-        <v>913.35994766800002</v>
+        <v>920.923581528</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A817" s="1">
-        <v>917.35994766800002</v>
+        <v>924.923581528</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A818" s="1">
-        <v>921.35994766800002</v>
+        <v>928.923581528</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A819" s="1">
-        <v>925.35994766800002</v>
+        <v>932.923581528</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A820" s="1">
-        <v>929.35994766800002</v>
+        <v>936.923581528</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A821" s="1">
-        <v>933.35994766800002</v>
+        <v>940.923581528</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A822" s="1">
-        <v>937.35994766800002</v>
+        <v>944.923581528</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A823" s="1">
-        <v>941.35994766800002</v>
+        <v>948.923581528</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A824" s="1">
-        <v>945.35994766800002</v>
+        <v>952.923581528</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A825" s="1">
-        <v>949.35994766800002</v>
+        <v>956.923581528</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A826" s="1">
-        <v>953.35994766800002</v>
+        <v>960.923581528</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A827" s="1">
-        <v>957.35994766800002</v>
+        <v>964.923581528</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A828" s="1">
-        <v>961.35994766800002</v>
+        <v>968.923581528</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A829" s="1">
-        <v>965.35994766800002</v>
+        <v>972.923581528</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A830" s="1">
-        <v>969.35994766800002</v>
+        <v>976.923581528</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A831" s="1">
-        <v>973.35994766800002</v>
+        <v>980.923581528</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A832" s="1">
-        <v>977.35994766800002</v>
+        <v>984.923581528</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A833" s="1">
-        <v>981.35994766800002</v>
+        <v>988.923581528</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A834" s="1">
-        <v>985.35994766800002</v>
+        <v>992.923581528</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A835" s="1">
-        <v>989.35994766800002</v>
+        <v>996.923581528</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A836" s="1">
-        <v>993.35994766800002</v>
+        <v>1000.923581528</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A837" s="1">
-        <v>997.35994766800002</v>
+        <v>1004.923581528</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A838" s="1">
-        <v>1001.359947668</v>
+        <v>1008.923581528</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A839" s="1">
-        <v>1005.359947668</v>
+        <v>1012.923581528</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A840" s="1">
-        <v>1009.359947668</v>
+        <v>1016.923581528</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A841" s="1">
-        <v>1013.359947668</v>
+        <v>1020.923581528</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A842" s="1">
-        <v>1017.359947668</v>
+        <v>1024.9235815280001</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A843" s="1">
-        <v>1021.359947668</v>
+        <v>1028.9235815280001</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A844" s="1">
-        <v>1025.3599476679999</v>
+        <v>1032.9235815280001</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A845" s="1">
-        <v>1029.3599476679999</v>
+        <v>1036.9235815280001</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A846" s="1">
-        <v>1033.3599476679999</v>
+        <v>1040.9235815280001</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A847" s="1">
-        <v>1037.3599476679999</v>
+        <v>1044.9235815280001</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A848" s="1">
-        <v>1041.3599476679999</v>
+        <v>1048.9235815280001</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A849" s="1">
-        <v>1045.3599476679999</v>
+        <v>1052.9235815280001</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A850" s="1">
-        <v>1049.3599476679999</v>
+        <v>1056.9235815280001</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A851" s="1">
-        <v>1053.3599476679999</v>
+        <v>1060.9235815280001</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A852" s="1">
-        <v>1057.3599476679999</v>
+        <v>1064.9235815280001</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A853" s="1">
-        <v>1061.3599476679999</v>
+        <v>1068.9235815280001</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A854" s="1">
-        <v>1065.3599476679999</v>
+        <v>1072.9235815280001</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A855" s="1">
-        <v>1069.3599476679999</v>
+        <v>1076.9235815280001</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A856" s="1">
-        <v>1073.3599476679999</v>
+        <v>1080.9235815280001</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A857" s="1">
-        <v>1077.3599476679999</v>
+        <v>1084.9235815280001</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A858" s="1">
-        <v>1081.3599476679999</v>
+        <v>1088.9235815280001</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A859" s="1">
-        <v>1085.3599476679999</v>
+        <v>1092.9235815280001</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A860" s="1">
-        <v>1089.3599476679999</v>
+        <v>1096.9235815280001</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A861" s="1">
-        <v>1093.3599476679999</v>
+        <v>1100.9235815280001</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A862" s="1">
-        <v>1097.3599476679999</v>
+        <v>1104.9235815280001</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A863" s="1">
-        <v>1101.3599476679999</v>
+        <v>1108.9235815280001</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A864" s="1">
-        <v>1105.3599476679999</v>
+        <v>1112.9235815280001</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A865" s="1">
-        <v>1109.3599476679999</v>
+        <v>1116.9235815280001</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A866" s="1">
-        <v>1113.3599476679999</v>
+        <v>1120.9235815280001</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A867" s="1">
-        <v>1117.3599476679999</v>
+        <v>1124.9235815280001</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A868" s="1">
-        <v>1121.3599476679999</v>
+        <v>1128.9235815280001</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A869" s="1">
-        <v>1125.3599476679999</v>
+        <v>1132.9235815280001</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A870" s="1">
-        <v>1129.3599476679999</v>
+        <v>1136.9235815280001</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A871" s="1">
-        <v>1133.3599476679999</v>
+        <v>1140.9235815280001</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A872" s="1">
-        <v>1137.3599476679999</v>
+        <v>1144.9235815280001</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A873" s="1">
-        <v>1141.3599476679999</v>
+        <v>1148.9235815280001</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A874" s="1">
-        <v>1145.3599476679999</v>
+        <v>1152.9235815280001</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A875" s="1">
-        <v>1149.3599476679999</v>
+        <v>1156.9235815280001</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A876" s="1">
-        <v>1153.3599476679999</v>
+        <v>1160.9235815280001</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A877" s="1">
-        <v>1157.3599476679999</v>
+        <v>1164.9235815280001</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A878" s="1">
-        <v>1161.3599476679999</v>
+        <v>1168.9235815280001</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A879" s="1">
-        <v>1165.3599476679999</v>
+        <v>1172.9235815280001</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A880" s="1">
-        <v>1169.3599476679999</v>
+        <v>1176.9235815280001</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A881" s="1">
-        <v>1173.3599476679999</v>
+        <v>1180.9235815280001</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A882" s="1">
-        <v>1177.3599476679999</v>
+        <v>1184.9235815280001</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A883" s="1">
-        <v>1181.3599476679999</v>
+        <v>1188.9235815280001</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A884" s="1">
-        <v>1185.3599476679999</v>
+        <v>1192.9235815280001</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A885" s="1">
-        <v>1189.3599476679999</v>
+        <v>1196.9235815280001</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A886" s="1">
-        <v>1193.3599476679999</v>
+        <v>1200.9235815280001</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A887" s="1">
-        <v>1197.3599476679999</v>
+        <v>1204.9235815280001</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A888" s="1">
-        <v>1201.3599476679999</v>
+        <v>1208.9235815280001</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A889" s="1">
-        <v>1205.3599476679999</v>
+        <v>1212.9235815280001</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A890" s="1">
-        <v>1209.3599476679999</v>
+        <v>1216.9235815280001</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A891" s="1">
-        <v>1213.3599476679999</v>
+        <v>1220.9235815280001</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A892" s="1">
-        <v>1217.3599476679999</v>
+        <v>1224.9235815280001</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A893" s="1">
-        <v>1221.3599476679999</v>
+        <v>1228.9235815280001</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A894" s="1">
-        <v>1225.3599476679999</v>
+        <v>1232.9235815280001</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A895" s="1">
-        <v>1229.3599476679999</v>
+        <v>1236.9235815280001</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A896" s="1">
-        <v>1233.3599476679999</v>
+        <v>1240.9235815280001</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A897" s="1">
-        <v>1237.3599476679999</v>
+        <v>1244.9235815280001</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A898" s="1">
-        <v>1241.3599476679999</v>
+        <v>1248.9235815280001</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A899" s="1">
-        <v>1245.3599476679999</v>
+        <v>1252.9235815280001</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A900" s="1">
-        <v>1249.3599476679999</v>
+        <v>1256.9235815280001</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A901" s="1">
-        <v>1253.3599476679999</v>
+        <v>1260.9235815280001</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A902" s="1">
-        <v>1257.3599476679999</v>
+        <v>1264.9235815280001</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A903" s="1">
-        <v>1261.3599476679999</v>
+        <v>1268.9235815280001</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A904" s="1">
-        <v>1265.3599476679999</v>
+        <v>1272.9235815280001</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A905" s="1">
-        <v>1269.3599476679999</v>
+        <v>1276.9235815280001</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A906" s="1">
-        <v>1273.3599476679999</v>
+        <v>1280.9235815280001</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A907" s="1">
-        <v>1277.3599476679999</v>
+        <v>1284.9235815280001</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A908" s="1">
-        <v>1281.3599476679999</v>
+        <v>1288.9235815280001</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A909" s="1">
-        <v>1285.3599476679999</v>
+        <v>1292.9235815280001</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A910" s="1">
-        <v>1289.3599476679999</v>
+        <v>1296.9235815280001</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A911" s="1">
-        <v>1293.3599476679999</v>
+        <v>1300.9235815280001</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A912" s="1">
-        <v>1297.3599476679999</v>
+        <v>1304.9235815280001</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A913" s="1">
-        <v>1301.3599476679999</v>
+        <v>1308.9235815280001</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A914" s="1">
-        <v>1305.3599476679999</v>
+        <v>1312.9235815280001</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A915" s="1">
-        <v>1309.3599476679999</v>
+        <v>1316.9235815280001</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A916" s="1">
-        <v>1313.3599476679999</v>
+        <v>1320.9235815280001</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A917" s="1">
-        <v>1317.3599476679999</v>
+        <v>1324.9235815280001</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A918" s="1">
-        <v>1321.3599476679999</v>
+        <v>1328.9235815280001</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A919" s="1">
-        <v>1325.3599476679999</v>
+        <v>1332.9235815280001</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A920" s="1">
-        <v>1329.3599476679999</v>
+        <v>1336.9235815280001</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A921" s="1">
-        <v>1333.3599476679999</v>
+        <v>1340.9235815280001</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A922" s="1">
-        <v>1337.3599476679999</v>
+        <v>1344.9235815280001</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A923" s="1">
-        <v>1341.3599476679999</v>
+        <v>1348.9235815280001</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A924" s="1">
-        <v>1345.3599476679999</v>
+        <v>1352.9235815280001</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A925" s="1">
-        <v>1349.3599476679999</v>
+        <v>1356.9235815280001</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A926" s="1">
-        <v>1353.3599476679999</v>
+        <v>1360.9235815280001</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A927" s="1">
-        <v>1357.3599476679999</v>
+        <v>1364.9235815280001</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A928" s="1">
-        <v>1361.3599476679999</v>
+        <v>1368.9235815280001</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A929" s="1">
-        <v>1365.3599476679999</v>
+        <v>1372.9235815280001</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A930" s="1">
-        <v>1369.3599476679999</v>
+        <v>1376.9235815280001</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A931" s="1">
-        <v>1373.3599476679999</v>
+        <v>1380.9235815280001</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A932" s="1">
-        <v>1377.3599476679999</v>
+        <v>1384.9235815280001</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A933" s="1">
-        <v>1381.3599476679999</v>
+        <v>1388.9235815280001</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A934" s="1">
-        <v>1385.3599476679999</v>
+        <v>1392.9235815280001</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A935" s="1">
-        <v>1389.3599476679999</v>
+        <v>1396.9235815280001</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A936" s="1">
-        <v>1393.3599476679999</v>
+        <v>1400.9235815280001</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A937" s="1">
-        <v>1397.3599476679999</v>
+        <v>1404.9235815280001</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A938" s="1">
-        <v>1401.3599476679999</v>
+        <v>1408.9235815280001</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A939" s="1">
-        <v>1405.3599476679999</v>
+        <v>1412.9235815280001</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A940" s="1">
-        <v>1409.3599476679999</v>
+        <v>1416.9235815280001</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A941" s="1">
-        <v>1413.3599476679999</v>
+        <v>1420.9235815280001</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A942" s="1">
-        <v>1417.3599476679999</v>
+        <v>1424.9235815280001</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A943" s="1">
-        <v>1421.3599476679999</v>
+        <v>1428.9235815280001</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A944" s="1">
-        <v>1425.3599476679999</v>
+        <v>1432.9235815280001</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A945" s="1">
-        <v>1429.3599476679999</v>
+        <v>1436.9235815280001</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A946" s="1">
-        <v>1433.3599476679999</v>
+        <v>1440.9235815280001</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A947" s="1">
-        <v>1437.3599476679999</v>
+        <v>1444.9235815280001</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A948" s="1">
-        <v>1441.3599476679999</v>
+        <v>1448.9235815280001</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A949" s="1">
-        <v>1445.3599476679999</v>
+        <v>1452.9235815280001</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A950" s="1">
-        <v>1449.3599476679999</v>
+        <v>1456.9235815280001</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A951" s="1">
-        <v>1453.3599476679999</v>
+        <v>1460.9235815280001</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A952" s="1">
-        <v>1457.3599476679999</v>
+        <v>1464.9235815280001</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A953" s="1">
-        <v>1461.3599476679999</v>
+        <v>1468.9235815280001</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A954" s="1">
-        <v>1465.3599476679999</v>
+        <v>1472.9235815280001</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A955" s="1">
-        <v>1469.3599476679999</v>
+        <v>1476.9235815280001</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A956" s="1">
-        <v>1473.3599476679999</v>
+        <v>1480.9235815280001</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A957" s="1">
-        <v>1477.3599476679999</v>
+        <v>1484.9235815280001</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A958" s="1">
-        <v>1481.3599476679999</v>
+        <v>1488.9235815280001</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A959" s="1">
-        <v>1485.3599476679999</v>
+        <v>1492.9235815280001</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A960" s="1">
-        <v>1489.3599476679999</v>
+        <v>1496.9235815280001</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A961" s="1">
-        <v>1493.3599476679999</v>
+        <v>1500.9235815280001</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A962" s="1">
-        <v>1497.3599476679999</v>
+        <v>1504.9235815280001</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A963" s="1">
-        <v>1501.3599476679999</v>
+        <v>1508.9235815280001</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A964" s="1">
-        <v>1505.3599476679999</v>
+        <v>1512.9235815280001</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A965" s="1">
-        <v>1509.3599476679999</v>
+        <v>1516.9235815280001</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A966" s="1">
-        <v>1513.3599476679999</v>
+        <v>1520.9235815280001</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A967" s="1">
-        <v>1517.3599476679999</v>
+        <v>1524.9235815280001</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A968" s="1">
-        <v>1521.3599476679999</v>
+        <v>1528.9235815280001</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A969" s="1">
-        <v>1525.3599476679999</v>
+        <v>1532.9235815280001</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A970" s="1">
-        <v>1529.3599476679999</v>
+        <v>1536.9235815280001</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A971" s="1">
-        <v>1533.3599476679999</v>
+        <v>1540.9235815280001</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A972" s="1">
-        <v>1537.3599476679999</v>
+        <v>1544.9235815280001</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A973" s="1">
-        <v>1541.3599476679999</v>
+        <v>1548.9235815280001</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A974" s="1">
-        <v>1545.3599476679999</v>
+        <v>1552.9235815280001</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A975" s="1">
-        <v>1549.3599476679999</v>
+        <v>1556.9235815280001</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A976" s="1">
-        <v>1553.3599476679999</v>
+        <v>1560.9235815280001</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A977" s="1">
-        <v>1557.3599476679999</v>
+        <v>1564.9235815280001</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A978" s="1">
-        <v>1561.3599476679999</v>
+        <v>1568.9235815280001</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A979" s="1">
-        <v>1565.3599476679999</v>
+        <v>1572.9235815280001</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A980" s="1">
-        <v>1569.3599476679999</v>
+        <v>1576.9235815280001</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A981" s="1">
-        <v>1573.3599476679999</v>
+        <v>1580.9235815280001</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A982" s="1">
-        <v>1577.3599476679999</v>
+        <v>1584.9235815280001</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A983" s="1">
-        <v>1581.3599476679999</v>
+        <v>1588.9235815280001</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A984" s="1">
-        <v>1585.3599476679999</v>
+        <v>1592.9235815280001</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A985" s="1">
-        <v>1589.3599476679999</v>
+        <v>1596.9235815280001</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A986" s="1">
-        <v>1593.3599476679999</v>
+        <v>1600.9235815280001</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A987" s="1">
-        <v>1597.3599476679999</v>
+        <v>1604.9235815280001</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A988" s="1">
-        <v>1601.3599476679999</v>
+        <v>1608.9235815280001</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A989" s="1">
-        <v>1605.3599476679999</v>
+        <v>1612.9235815280001</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A990" s="1">
-        <v>1609.3599476679999</v>
+        <v>1616.9235815280001</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A991" s="1">
-        <v>1613.3599476679999</v>
+        <v>1620.9235815280001</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A992" s="1">
-        <v>1617.3599476679999</v>
+        <v>1624.9235815280001</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A993" s="1">
-        <v>1621.3599476679999</v>
+        <v>1628.9235815280001</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A994" s="1">
-        <v>1625.3599476679999</v>
+        <v>1632.9235815280001</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A995" s="1">
-        <v>1629.3599476679999</v>
+        <v>1636.9235815280001</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A996" s="1">
-        <v>1633.3599476679999</v>
+        <v>1640.9235815280001</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A997" s="1">
-        <v>1637.3599476679999</v>
+        <v>1644.9235815280001</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A998" s="1">
-        <v>1641.3599476679999</v>
+        <v>1648.9235815280001</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A999" s="1">
-        <v>1645.3599476679999</v>
+        <v>1652.9235815280001</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1000" s="1">
-        <v>1649.3599476679999</v>
+        <v>1656.9235815280001</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1001" s="1">
-        <v>1653.3599476679999</v>
+        <v>1660.9235815280001</v>
       </c>
     </row>
   </sheetData>
@@ -5372,7 +5368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC6BB2-96D8-4D5B-83E6-8BDE2A5A3714}">
   <dimension ref="A1:A1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
